--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="338">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -17661,8 +17661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18139,7 +18139,7 @@
         <v>100</v>
       </c>
       <c r="W9" s="9">
-        <v>285</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -18577,7 +18577,7 @@
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>1300</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -19031,11 +19031,21 @@
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="9"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="9"/>
+      <c r="S38" s="17">
+        <v>45058</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V38" s="8">
+        <v>130</v>
+      </c>
+      <c r="W38" s="9">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -19484,11 +19494,11 @@
       <c r="U56" s="52"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>730</v>
+        <v>860</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>735</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -20012,11 +20022,21 @@
       <c r="W71" s="12"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
+      <c r="A72" s="13">
+        <v>45058</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="4">
+        <v>130</v>
+      </c>
+      <c r="E72" s="5">
+        <v>120</v>
+      </c>
       <c r="G72" s="13"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -20349,11 +20369,11 @@
       <c r="C87" s="52"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
-        <v>830</v>
+        <v>960</v>
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>1325</v>
+        <v>1445</v>
       </c>
       <c r="G87" s="50" t="s">
         <v>6</v>
@@ -20481,7 +20501,7 @@
       </c>
       <c r="G101" s="21">
         <f t="shared" ref="G101:G111" si="0">LARGE($C$100:$C$111,A101)</f>
-        <v>880</v>
+        <v>960</v>
       </c>
       <c r="I101" s="41"/>
       <c r="J101" s="30"/>
@@ -20512,11 +20532,11 @@
       </c>
       <c r="F102" s="18" t="str">
         <f t="shared" ref="F102:F111" si="1">VLOOKUP(G102,$C$100:$D$111,2,0)</f>
-        <v>GIR 0872</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>880</v>
       </c>
       <c r="H102" t="s">
         <v>334</v>
@@ -20550,11 +20570,11 @@
       </c>
       <c r="F103" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>AFU 0919</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="0"/>
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="H103" t="s">
         <v>37</v>
@@ -20588,11 +20608,11 @@
       </c>
       <c r="F104" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>PCS 1771</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="H104" t="s">
         <v>335</v>
@@ -20654,7 +20674,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>730</v>
+        <v>860</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -20768,7 +20788,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>830</v>
+        <v>960</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>14</v>

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="341">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1017,22 +1018,31 @@
     <t xml:space="preserve">unilever </t>
   </si>
   <si>
-    <t xml:space="preserve">QUALA </t>
-  </si>
-  <si>
     <t>tia Quito</t>
   </si>
   <si>
-    <t>uio</t>
-  </si>
-  <si>
-    <t>descargando</t>
-  </si>
-  <si>
     <t>tuti montec</t>
   </si>
   <si>
     <t>mariana</t>
+  </si>
+  <si>
+    <t>bomigroup</t>
+  </si>
+  <si>
+    <t>plastocos</t>
+  </si>
+  <si>
+    <t>rosado 2</t>
+  </si>
+  <si>
+    <t>retorno pallets</t>
+  </si>
+  <si>
+    <t>Prt Viejo</t>
+  </si>
+  <si>
+    <t>Conjeladores</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1413,13 +1423,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1472,6 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1859,56 +1883,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="M1" s="44" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="M1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
-      <c r="S1" s="44" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="S1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2916,11 +2940,11 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
         <v>800</v>
@@ -2929,11 +2953,11 @@
         <f>SUM(E4:E26)</f>
         <v>1030</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
         <v>1490</v>
@@ -2942,11 +2966,11 @@
         <f>SUM(K4:K26)</f>
         <v>2690</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
         <v>910</v>
@@ -2955,11 +2979,11 @@
         <f>SUM(Q4:Q26)</f>
         <v>1070</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
         <v>2570</v>
@@ -2970,56 +2994,56 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="M30" s="44" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="M30" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
-      <c r="S30" s="44" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="S30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -4094,11 +4118,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
         <v>1740</v>
@@ -4107,11 +4131,11 @@
         <f>SUM(E33:E55)</f>
         <v>2320</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="G56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
         <v>2160</v>
@@ -4120,11 +4144,11 @@
         <f>SUM(K33:K55)</f>
         <v>3230</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
         <v>940</v>
@@ -4133,11 +4157,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="50" t="s">
+      <c r="S56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T56" s="51"/>
-      <c r="U56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
         <v>1190</v>
@@ -4148,54 +4172,54 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="G61" s="44" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="G61" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="M61" s="44" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="46"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="49"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="49"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="50"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -5168,11 +5192,11 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
         <v>1680</v>
@@ -5181,11 +5205,11 @@
         <f>SUM(E64:E86)</f>
         <v>3470</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
         <v>1990</v>
@@ -5194,11 +5218,11 @@
         <f>SUM(K64:K86)</f>
         <v>2680</v>
       </c>
-      <c r="M87" s="50" t="s">
+      <c r="M87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N87" s="51"/>
-      <c r="O87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="53"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
         <v>1440</v>
@@ -5207,11 +5231,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>3500</v>
       </c>
-      <c r="S87" s="50" t="s">
+      <c r="S87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T87" s="51"/>
-      <c r="U87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="53"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
         <v>0</v>
@@ -5551,56 +5575,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="M1" s="44" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="M1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
-      <c r="S1" s="44" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="S1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6691,11 +6715,11 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
         <v>1470</v>
@@ -6704,11 +6728,11 @@
         <f>SUM(E4:E26)</f>
         <v>2550</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
         <v>1880</v>
@@ -6717,11 +6741,11 @@
         <f>SUM(K4:K26)</f>
         <v>3440</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
         <v>1430</v>
@@ -6730,11 +6754,11 @@
         <f>SUM(Q4:Q26)</f>
         <v>1770</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
         <v>1840</v>
@@ -6745,56 +6769,56 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="M30" s="44" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="M30" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
-      <c r="S30" s="44" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="S30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7863,11 +7887,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
         <v>1670</v>
@@ -7876,11 +7900,11 @@
         <f>SUM(E33:E55)</f>
         <v>2950</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="G56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
         <v>2160</v>
@@ -7889,11 +7913,11 @@
         <f>SUM(K33:K55)</f>
         <v>2550</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
         <v>1260</v>
@@ -7902,11 +7926,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>2960</v>
       </c>
-      <c r="S56" s="50" t="s">
+      <c r="S56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T56" s="51"/>
-      <c r="U56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
         <v>1580</v>
@@ -7917,56 +7941,56 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="G61" s="44" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="G61" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="M61" s="44" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="46"/>
-      <c r="S61" s="44" t="s">
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="S61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="49"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="49"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="50"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -8913,11 +8937,11 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
         <v>1450</v>
@@ -8926,11 +8950,11 @@
         <f>SUM(E64:E86)</f>
         <v>3240</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
         <v>1660</v>
@@ -8939,11 +8963,11 @@
         <f>SUM(K64:K86)</f>
         <v>2840</v>
       </c>
-      <c r="M87" s="50" t="s">
+      <c r="M87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N87" s="51"/>
-      <c r="O87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="53"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
         <v>1390</v>
@@ -8952,11 +8976,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>2970</v>
       </c>
-      <c r="S87" s="50" t="s">
+      <c r="S87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T87" s="51"/>
-      <c r="U87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="53"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
         <v>0</v>
@@ -9297,56 +9321,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="M1" s="44" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="M1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
-      <c r="S1" s="44" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="S1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10563,11 +10587,11 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
         <v>1940</v>
@@ -10576,11 +10600,11 @@
         <f>SUM(E4:E26)</f>
         <v>2930</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
         <v>1830</v>
@@ -10589,11 +10613,11 @@
         <f>SUM(K4:K26)</f>
         <v>5330</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
         <v>1960</v>
@@ -10602,11 +10626,11 @@
         <f>SUM(Q4:Q26)</f>
         <v>3120</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
         <v>2340</v>
@@ -10617,56 +10641,56 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="M30" s="44" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="M30" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
-      <c r="S30" s="44" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="S30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -11777,11 +11801,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
         <v>1820</v>
@@ -11790,11 +11814,11 @@
         <f>SUM(E33:E55)</f>
         <v>3400</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="G56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
         <v>1880</v>
@@ -11803,11 +11827,11 @@
         <f>SUM(K33:K55)</f>
         <v>3075</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
         <v>1630</v>
@@ -11816,11 +11840,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>3190</v>
       </c>
-      <c r="S56" s="50" t="s">
+      <c r="S56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T56" s="51"/>
-      <c r="U56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
         <v>1880</v>
@@ -11831,56 +11855,56 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="G61" s="44" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="G61" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="M61" s="44" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="46"/>
-      <c r="S61" s="44" t="s">
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="S61" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="49"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="49"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="50"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -13107,11 +13131,11 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
         <v>2040</v>
@@ -13120,11 +13144,11 @@
         <f>SUM(E64:E86)</f>
         <v>4120</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
         <v>1950</v>
@@ -13133,11 +13157,11 @@
         <f>SUM(K64:K86)</f>
         <v>4840</v>
       </c>
-      <c r="M87" s="50" t="s">
+      <c r="M87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N87" s="51"/>
-      <c r="O87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="53"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
         <v>1870</v>
@@ -13146,11 +13170,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>3060</v>
       </c>
-      <c r="S87" s="50" t="s">
+      <c r="S87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T87" s="51"/>
-      <c r="U87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="53"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
         <v>1740</v>
@@ -13508,7 +13532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="L31" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -13520,56 +13544,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="M1" s="44" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="M1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
-      <c r="S1" s="44" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="S1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14730,11 +14754,11 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
         <v>1589</v>
@@ -14743,11 +14767,11 @@
         <f>SUM(E4:E26)</f>
         <v>3135</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
         <v>2300</v>
@@ -14756,11 +14780,11 @@
         <f>SUM(K4:K26)</f>
         <v>3570</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
         <v>2030</v>
@@ -14769,11 +14793,11 @@
         <f>SUM(Q4:Q26)</f>
         <v>2500</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
         <v>2040</v>
@@ -14784,56 +14808,56 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="M30" s="44" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="M30" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
-      <c r="S30" s="44" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="S30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -15928,11 +15952,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
         <v>2160</v>
@@ -15941,11 +15965,11 @@
         <f>SUM(E33:E55)</f>
         <v>2790</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="G56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
         <v>2080</v>
@@ -15954,11 +15978,11 @@
         <f>SUM(K33:K55)</f>
         <v>2360</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
         <v>1640</v>
@@ -15967,11 +15991,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>3245</v>
       </c>
-      <c r="S56" s="50" t="s">
+      <c r="S56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T56" s="51"/>
-      <c r="U56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
         <v>1820</v>
@@ -15982,56 +16006,56 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="G61" s="44" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="G61" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="M61" s="44" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="46"/>
-      <c r="S61" s="44" t="s">
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="S61" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="49"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="49"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="50"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -17219,11 +17243,11 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
         <v>1950</v>
@@ -17232,11 +17256,11 @@
         <f>SUM(E64:E86)</f>
         <v>3805</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
         <v>2110</v>
@@ -17245,11 +17269,11 @@
         <f>SUM(K64:K86)</f>
         <v>3170</v>
       </c>
-      <c r="M87" s="50" t="s">
+      <c r="M87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N87" s="51"/>
-      <c r="O87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="53"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
         <v>1970</v>
@@ -17258,11 +17282,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>2880</v>
       </c>
-      <c r="S87" s="50" t="s">
+      <c r="S87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T87" s="51"/>
-      <c r="U87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="53"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
         <v>1970</v>
@@ -17661,8 +17685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17675,56 +17699,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="M1" s="44" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="M1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
-      <c r="S1" s="44" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="S1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -17844,7 +17868,7 @@
         <v>303</v>
       </c>
       <c r="V4" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="W4" s="5">
         <v>200</v>
@@ -18022,7 +18046,7 @@
         <v>303</v>
       </c>
       <c r="V7" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="W7" s="5">
         <v>200</v>
@@ -18063,7 +18087,7 @@
         <v>45055</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>41</v>
@@ -18091,26 +18115,36 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>170</v>
+      </c>
+      <c r="E9" s="5">
+        <v>170</v>
+      </c>
+      <c r="G9" s="17">
         <v>45057</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="H9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="8">
         <v>100</v>
       </c>
-      <c r="E9" s="9">
-        <v>285</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>300</v>
+      </c>
       <c r="M9" s="17">
         <v>45056</v>
       </c>
@@ -18133,7 +18167,7 @@
         <v>37</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V9" s="8">
         <v>100</v>
@@ -18148,11 +18182,21 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="2">
+        <v>45058</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5">
+        <v>400</v>
+      </c>
       <c r="M10" s="2">
         <v>45057</v>
       </c>
@@ -18168,33 +18212,69 @@
       <c r="Q10" s="5">
         <v>190</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="S10" s="2">
+        <v>45058</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>337</v>
+      </c>
       <c r="V10" s="4"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G11" s="10">
+        <v>45061</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="11">
+        <v>100</v>
+      </c>
       <c r="K11" s="12"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
+      <c r="M11" s="10">
+        <v>45058</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>75</v>
+      </c>
+      <c r="S11" s="10">
+        <v>45061</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="V11" s="11">
+        <v>160</v>
+      </c>
+      <c r="W11" s="12">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -18202,11 +18282,21 @@
       <c r="C12" s="14"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
+      <c r="G12" s="13">
+        <v>45061</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4">
+        <v>140</v>
+      </c>
+      <c r="K12" s="5">
+        <v>140</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
@@ -18527,110 +18617,110 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>1240</v>
-      </c>
-      <c r="G27" s="50" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>600</v>
+        <v>1040</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>850</v>
-      </c>
-      <c r="M27" s="50" t="s">
+        <v>1690</v>
+      </c>
+      <c r="M27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
-        <v>970</v>
+        <v>1040</v>
       </c>
       <c r="Q27" s="16">
         <f>SUM(Q4:Q26)</f>
-        <v>1255</v>
-      </c>
-      <c r="S27" s="50" t="s">
+        <v>1330</v>
+      </c>
+      <c r="S27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
-        <v>710</v>
+        <v>870</v>
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>1395</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="M30" s="44" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="M30" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
-      <c r="S30" s="44" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="S30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -18952,16 +19042,16 @@
       <c r="G37" s="17">
         <v>45054</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="4">
         <v>140</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="5">
         <v>140</v>
       </c>
       <c r="M37" s="2">
@@ -19011,11 +19101,11 @@
       <c r="E38" s="9">
         <v>170</v>
       </c>
-      <c r="G38" s="17">
-        <v>45147</v>
+      <c r="G38" s="44">
+        <v>45055</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>331</v>
@@ -19026,11 +19116,21 @@
       <c r="K38" s="9">
         <v>70</v>
       </c>
-      <c r="M38" s="17"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="9"/>
+      <c r="M38" s="17">
+        <v>45061</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P38" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>285</v>
+      </c>
       <c r="S38" s="17">
         <v>45058</v>
       </c>
@@ -19048,11 +19148,21 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="4">
+        <v>170</v>
+      </c>
+      <c r="E39" s="5">
+        <v>170</v>
+      </c>
       <c r="G39" s="2">
         <v>45056</v>
       </c>
@@ -19073,11 +19183,21 @@
       <c r="O39" s="3"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="5"/>
+      <c r="S39" s="10">
+        <v>45061</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" s="11">
+        <v>170</v>
+      </c>
+      <c r="W39" s="12">
+        <v>170</v>
+      </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
@@ -19094,7 +19214,9 @@
       <c r="I40" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J40" s="11"/>
+      <c r="J40" s="11">
+        <v>140</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -19145,11 +19267,21 @@
       <c r="C42" s="14"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
+      <c r="G42" s="13">
+        <v>45061</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="4">
+        <v>70</v>
+      </c>
+      <c r="K42" s="5">
+        <v>70</v>
+      </c>
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
@@ -19448,110 +19580,110 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>855</v>
-      </c>
-      <c r="G56" s="50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>880</v>
+        <v>1090</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>1080</v>
-      </c>
-      <c r="M56" s="50" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>1410</v>
-      </c>
-      <c r="S56" s="50" t="s">
+        <v>1695</v>
+      </c>
+      <c r="S56" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T56" s="51"/>
-      <c r="U56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>860</v>
+        <v>1030</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>855</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="G61" s="44" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="G61" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="M61" s="44" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="46"/>
-      <c r="S61" s="44" t="s">
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="S61" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="49"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="49"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="50"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -19869,8 +20001,12 @@
       <c r="C68" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
+      <c r="D68" s="4">
+        <v>150</v>
+      </c>
+      <c r="E68" s="5">
+        <v>150</v>
+      </c>
       <c r="G68" s="2">
         <v>45057</v>
       </c>
@@ -19908,7 +20044,7 @@
         <v>65</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V68" s="4">
         <v>100</v>
@@ -19933,29 +20069,51 @@
       <c r="E69" s="9">
         <v>170</v>
       </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
+      <c r="G69" s="17">
+        <v>45058</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="8">
+        <v>150</v>
+      </c>
+      <c r="K69" s="9">
+        <v>150</v>
+      </c>
       <c r="M69" s="17">
         <v>45057</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O69" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="P69" s="8">
         <v>150</v>
       </c>
       <c r="Q69" s="9">
         <v>150</v>
       </c>
-      <c r="S69" s="17"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="9"/>
+      <c r="S69" s="17">
+        <v>45061</v>
+      </c>
+      <c r="T69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U69" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V69" s="8">
+        <v>140</v>
+      </c>
+      <c r="W69" s="9">
+        <v>140</v>
+      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -19973,16 +20131,28 @@
       <c r="E70" s="5">
         <v>75</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3"/>
+      <c r="G70" s="2">
+        <v>45061</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="M70" s="2">
+        <v>45058</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="P70" s="4"/>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="5">
+        <v>180</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -20010,11 +20180,21 @@
       <c r="I71" s="10"/>
       <c r="J71" s="11"/>
       <c r="K71" s="12"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="12"/>
+      <c r="M71" s="10">
+        <v>45059</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="11">
+        <v>150</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>150</v>
+      </c>
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
@@ -20032,7 +20212,7 @@
         <v>29</v>
       </c>
       <c r="D72" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E72" s="5">
         <v>120</v>
@@ -20042,11 +20222,21 @@
       <c r="I72" s="14"/>
       <c r="J72" s="4"/>
       <c r="K72" s="5"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="5"/>
+      <c r="M72" s="13">
+        <v>45061</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>200</v>
+      </c>
       <c r="S72" s="13"/>
       <c r="T72" s="14"/>
       <c r="U72" s="14"/>
@@ -20054,11 +20244,19 @@
       <c r="W72" s="5"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="A73" s="13">
+        <v>45059</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5">
+        <v>120</v>
+      </c>
       <c r="G73" s="13"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -20076,11 +20274,21 @@
       <c r="W73" s="5"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
+      <c r="A74" s="13">
+        <v>45061</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="4">
+        <v>70</v>
+      </c>
+      <c r="E74" s="5">
+        <v>70</v>
+      </c>
       <c r="G74" s="13"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -20362,76 +20570,60 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
-        <v>960</v>
+        <v>1170</v>
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>1445</v>
-      </c>
-      <c r="G87" s="50" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>1450</v>
-      </c>
-      <c r="M87" s="50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N87" s="51"/>
-      <c r="O87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="53"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>790</v>
+        <v>1100</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>1050</v>
-      </c>
-      <c r="S87" s="50" t="s">
+        <v>1580</v>
+      </c>
+      <c r="S87" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T87" s="51"/>
-      <c r="U87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="53"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
-        <v>690</v>
+        <v>830</v>
       </c>
       <c r="W87" s="16">
         <f>SUM(W64:W86)</f>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I95">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I96">
-        <f>I95*0.12</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I97">
-        <f>I95+I96</f>
-        <v>72.8</v>
-      </c>
-    </row>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L99" s="33" t="s">
@@ -20450,7 +20642,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>710</v>
+        <v>870</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>9</v>
@@ -20458,17 +20650,15 @@
       <c r="E100" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F100" s="18" t="str">
+      <c r="F100" s="20" t="str">
         <f>VLOOKUP(G100,$C$100:$D$111,2,0)</f>
-        <v>GBN 8358</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>970</v>
-      </c>
-      <c r="H100" t="s">
-        <v>322</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="H100" s="18"/>
       <c r="I100" s="43"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
@@ -20488,7 +20678,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>600</v>
+        <v>1040</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -20496,13 +20686,15 @@
       <c r="E101" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="18" t="s">
-        <v>8</v>
+      <c r="F101" s="20" t="str">
+        <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
+        <v>AFU 0919</v>
       </c>
       <c r="G101" s="21">
-        <f t="shared" ref="G101:G111" si="0">LARGE($C$100:$C$111,A101)</f>
-        <v>960</v>
-      </c>
+        <f t="shared" ref="G101:G111" si="1">LARGE($C$100:$C$111,A101)</f>
+        <v>1100</v>
+      </c>
+      <c r="H101" s="18"/>
       <c r="I101" s="41"/>
       <c r="J101" s="30"/>
       <c r="K101" s="31"/>
@@ -20522,7 +20714,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -20530,17 +20722,15 @@
       <c r="E102" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="18" t="str">
-        <f t="shared" ref="F102:F111" si="1">VLOOKUP(G102,$C$100:$D$111,2,0)</f>
+      <c r="F102" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>GLL 0927</v>
       </c>
       <c r="G102" s="21">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="H102" t="s">
-        <v>334</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1090</v>
+      </c>
+      <c r="H102" s="18"/>
       <c r="I102" s="41"/>
       <c r="J102" s="32"/>
       <c r="K102" s="31"/>
@@ -20560,7 +20750,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>880</v>
+        <v>1090</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -20568,17 +20758,15 @@
       <c r="E103" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="18" t="str">
+      <c r="F103" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
+      </c>
+      <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>PCS 1771</v>
-      </c>
-      <c r="G103" s="21">
-        <f t="shared" si="0"/>
-        <v>860</v>
-      </c>
-      <c r="H103" t="s">
-        <v>37</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="H103" s="18"/>
       <c r="I103" s="42"/>
       <c r="J103" s="30"/>
       <c r="K103" s="31"/>
@@ -20598,7 +20786,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -20606,17 +20794,14 @@
       <c r="E104" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="18" t="str">
+      <c r="F104" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>AFU 0919</v>
-      </c>
-      <c r="G104" s="21">
-        <f t="shared" si="0"/>
-        <v>790</v>
-      </c>
-      <c r="H104" t="s">
-        <v>335</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="H104" s="18"/>
       <c r="I104" s="41"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
@@ -20636,7 +20821,7 @@
       </c>
       <c r="C105" s="19">
         <f>P27</f>
-        <v>970</v>
+        <v>1040</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>8</v>
@@ -20644,17 +20829,15 @@
       <c r="E105" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="18" t="str">
+      <c r="F105" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PCS 1771</v>
+      </c>
+      <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>PTO 0223</v>
-      </c>
-      <c r="G105" s="21">
-        <f t="shared" si="0"/>
-        <v>710</v>
-      </c>
-      <c r="H105" t="s">
-        <v>37</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="H105" s="18"/>
       <c r="I105" s="41"/>
       <c r="J105" s="30"/>
       <c r="K105" s="31"/>
@@ -20674,7 +20857,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>860</v>
+        <v>1030</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -20682,17 +20865,15 @@
       <c r="E106" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F106" s="18" t="str">
+      <c r="F106" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>POS 0267</v>
-      </c>
-      <c r="G106" s="21">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="H106" s="43" t="s">
-        <v>37</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="H106" s="43"/>
       <c r="I106" s="41"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
@@ -20712,7 +20893,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -20720,17 +20901,14 @@
       <c r="E107" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>PZQ 0360</v>
+      <c r="F107" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="G107" s="21">
         <f>LARGE($C$100:$C$111,A107)</f>
-        <v>690</v>
-      </c>
-      <c r="H107" t="s">
-        <v>37</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="H107" s="18"/>
       <c r="I107" s="41"/>
       <c r="J107" s="30"/>
       <c r="K107" s="31"/>
@@ -20750,7 +20928,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -20758,17 +20936,15 @@
       <c r="E108" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F108" s="18" t="str">
+      <c r="F108" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PZQ 0360</v>
+      </c>
+      <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>PAB 2383</v>
-      </c>
-      <c r="G108" s="21">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="H108" t="s">
-        <v>74</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="H108" s="18"/>
       <c r="I108" s="41"/>
       <c r="J108" s="32"/>
       <c r="K108" s="31"/>
@@ -20788,7 +20964,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>960</v>
+        <v>1170</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>14</v>
@@ -20796,17 +20972,15 @@
       <c r="E109" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F109" s="18" t="str">
+      <c r="F109" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>GBP 3078</v>
+      </c>
+      <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>AAY 0116</v>
-      </c>
-      <c r="G109" s="21">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>37</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="H109" s="43"/>
       <c r="I109" s="42"/>
       <c r="J109" s="32"/>
       <c r="K109" s="31"/>
@@ -20826,7 +21000,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>790</v>
+        <v>1100</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -20834,13 +21008,15 @@
       <c r="E110" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F110" s="18" t="s">
-        <v>15</v>
+      <c r="F110" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PAB 2383</v>
       </c>
       <c r="G110" s="21">
-        <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+      <c r="H110" s="18"/>
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
       <c r="K110" s="31"/>
@@ -20860,7 +21036,7 @@
       </c>
       <c r="C111" s="24">
         <f>V87</f>
-        <v>690</v>
+        <v>830</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>12</v>
@@ -20868,17 +21044,15 @@
       <c r="E111" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F111" s="18" t="str">
+      <c r="F111" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>GSB 3779</v>
+      </c>
+      <c r="G111" s="21">
         <f t="shared" si="1"/>
-        <v>GSB 3779</v>
-      </c>
-      <c r="G111" s="21">
-        <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-      <c r="H111" t="s">
-        <v>334</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="H111" s="18"/>
       <c r="I111" s="42"/>
       <c r="K111" s="31"/>
       <c r="L111" s="40" t="s">
@@ -20939,40 +21113,40 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="K7" s="56" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="K7" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="3:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
@@ -20993,18 +21167,18 @@
       <c r="H8" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="59" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
@@ -21019,18 +21193,18 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="59" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="3:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
@@ -21045,18 +21219,18 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="62" t="s">
+      <c r="L10" s="59"/>
+      <c r="M10" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
@@ -21113,16 +21287,16 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="61"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="20" t="s">
@@ -21137,18 +21311,18 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="59" t="s">
+      <c r="L15" s="56"/>
+      <c r="M15" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="20" t="s">
@@ -21163,18 +21337,18 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="59" t="s">
+      <c r="L16" s="57"/>
+      <c r="M16" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
@@ -21189,18 +21363,18 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="62" t="s">
+      <c r="L17" s="59"/>
+      <c r="M17" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="65"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="20" t="s">
@@ -21243,592 +21417,592 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="61"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="59" t="s">
+      <c r="L21" s="56"/>
+      <c r="M21" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="59" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="62" t="s">
+      <c r="L23" s="59"/>
+      <c r="M23" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="65"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="61"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="62"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L27" s="55"/>
-      <c r="M27" s="59" t="s">
+      <c r="L27" s="56"/>
+      <c r="M27" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="62"/>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="59" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="62"/>
     </row>
     <row r="29" spans="3:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="62" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="65"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="L32" s="56"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="61"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="62"/>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L33" s="55"/>
-      <c r="M33" s="59" t="s">
+      <c r="L33" s="56"/>
+      <c r="M33" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="62"/>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="59" t="s">
+      <c r="L34" s="57"/>
+      <c r="M34" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="62"/>
     </row>
     <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="57" t="s">
+      <c r="K35" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="62" t="s">
+      <c r="L35" s="59"/>
+      <c r="M35" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="65"/>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="56" t="s">
+      <c r="K38" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="L38" s="56"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="61"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="62"/>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="55" t="s">
+      <c r="K39" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L39" s="55"/>
-      <c r="M39" s="59" t="s">
+      <c r="L39" s="56"/>
+      <c r="M39" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="62"/>
     </row>
     <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="56" t="s">
+      <c r="K40" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L40" s="56"/>
-      <c r="M40" s="59" t="s">
+      <c r="L40" s="57"/>
+      <c r="M40" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="57" t="s">
+      <c r="K41" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="62" t="s">
+      <c r="L41" s="59"/>
+      <c r="M41" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="65"/>
     </row>
     <row r="44" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K44" s="56" t="s">
+      <c r="K44" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="L44" s="56"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="61"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="62"/>
     </row>
     <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="55" t="s">
+      <c r="K45" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L45" s="55"/>
-      <c r="M45" s="59" t="s">
+      <c r="L45" s="56"/>
+      <c r="M45" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="62"/>
     </row>
     <row r="46" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="59" t="s">
+      <c r="L46" s="57"/>
+      <c r="M46" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="62"/>
     </row>
     <row r="47" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K47" s="57" t="s">
+      <c r="K47" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L47" s="58"/>
-      <c r="M47" s="62" t="s">
+      <c r="L47" s="59"/>
+      <c r="M47" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="65"/>
     </row>
     <row r="50" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K50" s="56" t="s">
+      <c r="K50" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="L50" s="56"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="61"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="62"/>
     </row>
     <row r="51" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K51" s="55" t="s">
+      <c r="K51" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="59" t="s">
+      <c r="L51" s="56"/>
+      <c r="M51" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="62"/>
     </row>
     <row r="52" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K52" s="56" t="s">
+      <c r="K52" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L52" s="56"/>
-      <c r="M52" s="59" t="s">
+      <c r="L52" s="57"/>
+      <c r="M52" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="62"/>
     </row>
     <row r="53" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K53" s="57" t="s">
+      <c r="K53" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="62" t="s">
+      <c r="L53" s="59"/>
+      <c r="M53" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="65"/>
     </row>
     <row r="56" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K56" s="56" t="s">
+      <c r="K56" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="L56" s="56"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="61"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="62"/>
     </row>
     <row r="57" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K57" s="55" t="s">
+      <c r="K57" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L57" s="55"/>
-      <c r="M57" s="59" t="s">
+      <c r="L57" s="56"/>
+      <c r="M57" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="62"/>
     </row>
     <row r="58" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K58" s="56" t="s">
+      <c r="K58" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L58" s="56"/>
-      <c r="M58" s="59" t="s">
+      <c r="L58" s="57"/>
+      <c r="M58" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="62"/>
     </row>
     <row r="59" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="57" t="s">
+      <c r="K59" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="59" t="s">
+      <c r="L59" s="59"/>
+      <c r="M59" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="62"/>
     </row>
     <row r="62" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K62" s="67" t="s">
+      <c r="K62" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="L62" s="68"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="61"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="62"/>
     </row>
     <row r="63" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L63" s="66"/>
-      <c r="M63" s="59" t="s">
+      <c r="L63" s="67"/>
+      <c r="M63" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="62"/>
     </row>
     <row r="64" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="L64" s="68"/>
-      <c r="M64" s="59" t="s">
+      <c r="L64" s="69"/>
+      <c r="M64" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="62"/>
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="57" t="s">
+      <c r="K65" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L65" s="58"/>
-      <c r="M65" s="59" t="s">
+      <c r="L65" s="59"/>
+      <c r="M65" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="62"/>
     </row>
     <row r="68" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K68" s="67" t="s">
+      <c r="K68" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="L68" s="68"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="61"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="62"/>
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="65" t="s">
+      <c r="K69" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L69" s="66"/>
-      <c r="M69" s="59" t="s">
+      <c r="L69" s="67"/>
+      <c r="M69" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="62"/>
     </row>
     <row r="70" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K70" s="67" t="s">
+      <c r="K70" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="L70" s="68"/>
-      <c r="M70" s="59" t="s">
+      <c r="L70" s="69"/>
+      <c r="M70" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-      <c r="R70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="62"/>
     </row>
     <row r="71" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K71" s="57" t="s">
+      <c r="K71" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L71" s="58"/>
-      <c r="M71" s="59" t="s">
+      <c r="L71" s="59"/>
+      <c r="M71" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="62"/>
     </row>
     <row r="74" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K74" s="67" t="s">
+      <c r="K74" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="L74" s="68"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="60"/>
-      <c r="O74" s="60"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="60"/>
-      <c r="R74" s="61"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="62"/>
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="65" t="s">
+      <c r="K75" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L75" s="66"/>
-      <c r="M75" s="59" t="s">
+      <c r="L75" s="67"/>
+      <c r="M75" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="62"/>
     </row>
     <row r="76" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K76" s="67" t="s">
+      <c r="K76" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="L76" s="68"/>
-      <c r="M76" s="59" t="s">
+      <c r="L76" s="69"/>
+      <c r="M76" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60"/>
-      <c r="Q76" s="60"/>
-      <c r="R76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="62"/>
     </row>
     <row r="77" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K77" s="57" t="s">
+      <c r="K77" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L77" s="58"/>
-      <c r="M77" s="62" t="s">
+      <c r="L77" s="59"/>
+      <c r="M77" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="65"/>
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K80" s="67" t="s">
+      <c r="K80" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="L80" s="68"/>
-      <c r="M80" s="59" t="s">
+      <c r="L80" s="69"/>
+      <c r="M80" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60"/>
-      <c r="Q80" s="60"/>
-      <c r="R80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="62"/>
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K81" s="65" t="s">
+      <c r="K81" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L81" s="66"/>
+      <c r="L81" s="67"/>
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K82" s="67" t="s">
+      <c r="K82" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="L82" s="68"/>
-      <c r="M82" s="59" t="s">
+      <c r="L82" s="69"/>
+      <c r="M82" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="N82" s="60"/>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60"/>
-      <c r="R82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="62"/>
     </row>
     <row r="83" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K83" s="57" t="s">
+      <c r="K83" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L83" s="58"/>
-      <c r="M83" s="59" t="s">
+      <c r="L83" s="59"/>
+      <c r="M83" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="104">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A00029-8D99-4377-8A11-105448CC9541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB8A45-2F82-4154-975D-C4C44BD95FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="366">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1123,6 +1123,15 @@
   </si>
   <si>
     <t>Tuti Costa</t>
+  </si>
+  <si>
+    <t>FAMI RANSA</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>FAMI RANS</t>
   </si>
 </sst>
 </file>
@@ -17795,8 +17804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18915,11 +18924,21 @@
       <c r="E20" s="5">
         <v>300</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
+      <c r="G20" s="13">
+        <v>45076</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+      <c r="K20" s="5">
+        <v>300</v>
+      </c>
       <c r="M20" s="13">
         <v>45103</v>
       </c>
@@ -19007,11 +19026,21 @@
       <c r="O22" s="14"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="5"/>
+      <c r="S22" s="13">
+        <v>45076</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V22" s="4">
+        <v>140</v>
+      </c>
+      <c r="W22" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -19122,11 +19151,11 @@
       <c r="I27" s="46"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>1710</v>
+        <v>1810</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>3920</v>
+        <v>4220</v>
       </c>
       <c r="M27" s="44" t="s">
         <v>6</v>
@@ -19148,11 +19177,11 @@
       <c r="U27" s="46"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
-        <v>2145</v>
+        <v>2285</v>
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>3510</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -20225,11 +20254,21 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="13">
+        <v>45076</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" s="4">
+        <v>150</v>
+      </c>
+      <c r="E49" s="5">
+        <v>150</v>
+      </c>
       <c r="G49" s="13">
         <v>45071</v>
       </c>
@@ -20250,11 +20289,21 @@
       <c r="O49" s="14"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="5"/>
+      <c r="S49" s="13">
+        <v>45076</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="U49" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V49" s="4">
+        <v>150</v>
+      </c>
+      <c r="W49" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -20406,11 +20455,11 @@
       <c r="C56" s="46"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>2005</v>
+        <v>2155</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>2545</v>
+        <v>2695</v>
       </c>
       <c r="G56" s="44" t="s">
         <v>6</v>
@@ -20445,11 +20494,11 @@
       <c r="U56" s="46"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>2325</v>
+        <v>2475</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>2325</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -21404,11 +21453,21 @@
       <c r="E78" s="5">
         <v>120</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="5"/>
+      <c r="G78" s="13">
+        <v>45076</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="J78" s="4">
+        <v>150</v>
+      </c>
+      <c r="K78" s="5">
+        <v>150</v>
+      </c>
       <c r="M78" s="13">
         <v>45072</v>
       </c>
@@ -21489,11 +21548,21 @@
       <c r="I80" s="14"/>
       <c r="J80" s="4"/>
       <c r="K80" s="5"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="5"/>
+      <c r="M80" s="13">
+        <v>45076</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="P80" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>150</v>
+      </c>
       <c r="S80" s="13"/>
       <c r="T80" s="14"/>
       <c r="U80" s="14"/>
@@ -21565,9 +21634,15 @@
       <c r="W82" s="5"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
+      <c r="A83" s="13">
+        <v>45076</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
       <c r="G83" s="13"/>
@@ -21673,11 +21748,11 @@
       <c r="I87" s="46"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>1370</v>
+        <v>1520</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>4060</v>
+        <v>4210</v>
       </c>
       <c r="M87" s="44" t="s">
         <v>6</v>
@@ -21686,11 +21761,11 @@
       <c r="O87" s="46"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1810</v>
+        <v>1960</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>2785</v>
+        <v>2935</v>
       </c>
       <c r="S87" s="44" t="s">
         <v>6</v>
@@ -21725,7 +21800,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>2145</v>
+        <v>2285</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>9</v>
@@ -21760,7 +21835,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>1710</v>
+        <v>1810</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -21770,11 +21845,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>PAB 2383</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G101" s="21">
         <f t="shared" ref="G101:G111" si="1">LARGE($C$100:$C$111,A101)</f>
-        <v>2350</v>
+        <v>2475</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -21805,11 +21880,11 @@
       </c>
       <c r="F102" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" si="1"/>
-        <v>2325</v>
+        <v>2350</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -21842,7 +21917,7 @@
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>2145</v>
+        <v>2285</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -21872,11 +21947,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>POS 0267</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>2120</v>
+        <v>2155</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -21906,11 +21981,11 @@
       </c>
       <c r="F105" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>2005</v>
+        <v>2120</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -21930,7 +22005,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>2325</v>
+        <v>2475</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -21944,7 +22019,7 @@
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>1810</v>
+        <v>1960</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -21964,7 +22039,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>2005</v>
+        <v>2155</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -21974,11 +22049,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -21998,7 +22073,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>1370</v>
+        <v>1520</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -22008,11 +22083,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>1760</v>
+        <v>1790</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -22041,11 +22116,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>1710</v>
+        <v>1760</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -22064,7 +22139,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1810</v>
+        <v>1960</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -22074,11 +22149,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>1380</v>
+        <v>1520</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">
@@ -22107,11 +22182,11 @@
       </c>
       <c r="F111" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G111" s="21">
         <f t="shared" si="1"/>
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="H111" s="18"/>
       <c r="L111" s="36" t="s">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151940F1-BE60-49F2-A7BB-DE9AF002099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB050C1-C0D3-480F-835F-6873B6DCE381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="418">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1281,6 +1281,15 @@
   </si>
   <si>
     <t>semvra exacto</t>
+  </si>
+  <si>
+    <t>Sto D</t>
+  </si>
+  <si>
+    <t>Whripool</t>
+  </si>
+  <si>
+    <t>Turi</t>
   </si>
 </sst>
 </file>
@@ -26633,8 +26642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27188,16 +27197,32 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="10">
+        <v>45121</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="E11" s="12">
+        <v>210</v>
+      </c>
+      <c r="G11" s="10">
+        <v>45121</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="39">
+        <v>285</v>
+      </c>
       <c r="M11" s="10">
         <v>45120</v>
       </c>
@@ -27230,11 +27255,21 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="13">
+        <v>45122</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>120</v>
+      </c>
+      <c r="E12" s="5">
+        <v>120</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -27255,11 +27290,19 @@
       <c r="Q12" s="5">
         <v>170</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="S12" s="13">
+        <v>45121</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="V12" s="4"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -27577,11 +27620,11 @@
       <c r="C27" s="48"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>830</v>
+        <v>950</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>1475</v>
+        <v>1805</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>6</v>
@@ -27594,7 +27637,7 @@
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>1100</v>
+        <v>1385</v>
       </c>
       <c r="M27" s="46" t="s">
         <v>6</v>
@@ -27620,7 +27663,7 @@
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>1515</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -28031,18 +28074,36 @@
       <c r="Q37" s="5">
         <v>150</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="5"/>
+      <c r="S37" s="2">
+        <v>45121</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="V37" s="4">
+        <v>160</v>
+      </c>
+      <c r="W37" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="6">
+        <v>45121</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <v>145</v>
+      </c>
       <c r="G38" s="37">
         <v>45120</v>
       </c>
@@ -28085,11 +28146,21 @@
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="5"/>
+      <c r="G39" s="2">
+        <v>45121</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="4">
+        <v>170</v>
+      </c>
+      <c r="K39" s="5">
+        <v>170</v>
+      </c>
       <c r="M39" s="2">
         <v>45119</v>
       </c>
@@ -28475,7 +28546,7 @@
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>1650</v>
+        <v>1795</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>6</v>
@@ -28484,11 +28555,11 @@
       <c r="I56" s="48"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>925</v>
+        <v>1095</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>925</v>
+        <v>1095</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>6</v>
@@ -28510,11 +28581,11 @@
       <c r="U56" s="48"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>605</v>
+        <v>765</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>790</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -28931,7 +29002,7 @@
         <v>100</v>
       </c>
       <c r="E69" s="9">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G69" s="17">
         <v>45118</v>
@@ -28970,11 +29041,21 @@
       <c r="W69" s="9"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
+      <c r="A70" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="4">
+        <v>100</v>
+      </c>
+      <c r="E70" s="5">
+        <v>285</v>
+      </c>
       <c r="G70" s="2">
         <v>45119</v>
       </c>
@@ -28990,11 +29071,19 @@
       <c r="K70" s="5">
         <v>285</v>
       </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="M70" s="2">
+        <v>45121</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P70" s="4"/>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="5">
+        <v>200</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -29039,11 +29128,19 @@
       <c r="C72" s="14"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="G72" s="13">
+        <v>45121</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J72" s="4"/>
-      <c r="K72" s="5"/>
+      <c r="K72" s="5">
+        <v>285</v>
+      </c>
       <c r="M72" s="13"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
@@ -29371,11 +29468,11 @@
       <c r="C87" s="48"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>1620</v>
+        <v>1945</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>6</v>
@@ -29388,7 +29485,7 @@
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>1380</v>
+        <v>1665</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>6</v>
@@ -29401,7 +29498,7 @@
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>980</v>
+        <v>1180</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>6</v>
@@ -29481,11 +29578,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>GSB 3779</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -29506,7 +29603,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>830</v>
+        <v>950</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -29516,11 +29613,11 @@
       </c>
       <c r="F102" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -29539,7 +29636,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>925</v>
+        <v>1095</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -29549,11 +29646,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>940</v>
+        <v>1040</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -29583,11 +29680,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -29617,11 +29714,11 @@
       </c>
       <c r="F105" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>940</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -29641,7 +29738,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>605</v>
+        <v>765</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -29651,11 +29748,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -29683,9 +29780,8 @@
       <c r="E107" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>POS 0267</v>
+      <c r="F107" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
@@ -29719,11 +29815,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>POS 0267</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -29742,7 +29838,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>14</v>
@@ -29752,11 +29848,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -29785,11 +29881,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>605</v>
+        <v>750</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466EC7C6-D468-4714-BC8B-9A365CE8CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFAFFC0-D1CA-4298-8585-678C85F7A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="420">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -26648,8 +26648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G111"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27428,15 +27428,25 @@
       <c r="Q14" s="5">
         <v>200</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="5"/>
+      <c r="S14" s="13">
+        <v>45131</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="4">
+        <v>160</v>
+      </c>
+      <c r="W14" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <v>45129</v>
+        <v>45128</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>402</v>
@@ -27503,11 +27513,21 @@
       <c r="K16" s="5">
         <v>170</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="M16" s="13">
+        <v>45131</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="4">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>200</v>
+      </c>
       <c r="S16" s="13"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
@@ -27520,11 +27540,21 @@
       <c r="C17" s="14"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
+      <c r="G17" s="13">
+        <v>45101</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4">
+        <v>200</v>
+      </c>
+      <c r="K17" s="5">
+        <v>200</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
@@ -27755,11 +27785,11 @@
       <c r="I27" s="48"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>1390</v>
+        <v>1590</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>2470</v>
+        <v>2670</v>
       </c>
       <c r="M27" s="46" t="s">
         <v>6</v>
@@ -27768,11 +27798,11 @@
       <c r="O27" s="48"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
-        <v>1590</v>
+        <v>1790</v>
       </c>
       <c r="Q27" s="16">
         <f>SUM(Q4:Q26)</f>
-        <v>1990</v>
+        <v>2190</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>6</v>
@@ -27781,11 +27811,11 @@
       <c r="U27" s="48"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
-        <v>1210</v>
+        <v>1370</v>
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>1805</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -28273,11 +28303,21 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4">
+        <v>200</v>
+      </c>
+      <c r="E39" s="5">
+        <v>200</v>
+      </c>
       <c r="G39" s="2">
         <v>45121</v>
       </c>
@@ -28449,16 +28489,36 @@
       <c r="K42" s="5">
         <v>190</v>
       </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="5"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="5"/>
+      <c r="M42" s="13">
+        <v>45131</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>200</v>
+      </c>
+      <c r="S42" s="13">
+        <v>45131</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V42" s="4">
+        <v>100</v>
+      </c>
+      <c r="W42" s="5">
+        <v>285</v>
+      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -28466,11 +28526,21 @@
       <c r="C43" s="14"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
+      <c r="G43" s="13">
+        <v>45131</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="4">
+        <v>145</v>
+      </c>
+      <c r="K43" s="5">
+        <v>145</v>
+      </c>
       <c r="M43" s="13"/>
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
@@ -28754,11 +28824,11 @@
       <c r="C56" s="48"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>810</v>
+        <v>1010</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>1795</v>
+        <v>1995</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>6</v>
@@ -28767,11 +28837,11 @@
       <c r="I56" s="48"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>1590</v>
+        <v>1735</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>1630</v>
+        <v>1775</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>6</v>
@@ -28780,11 +28850,11 @@
       <c r="O56" s="48"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>1260</v>
+        <v>1420</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>1895</v>
+        <v>2095</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>6</v>
@@ -28793,11 +28863,11 @@
       <c r="U56" s="48"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>1870</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -29505,11 +29575,21 @@
       <c r="W74" s="5"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
+      <c r="A75" s="13">
+        <v>45131</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="4">
+        <v>100</v>
+      </c>
+      <c r="E75" s="5">
+        <v>285</v>
+      </c>
       <c r="G75" s="13">
         <v>45126</v>
       </c>
@@ -29525,11 +29605,21 @@
       <c r="K75" s="5">
         <v>150</v>
       </c>
-      <c r="M75" s="13"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="5"/>
+      <c r="M75" s="13">
+        <v>45131</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>200</v>
+      </c>
       <c r="S75" s="13"/>
       <c r="T75" s="14"/>
       <c r="U75" s="14"/>
@@ -29606,11 +29696,21 @@
       <c r="C78" s="14"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="5"/>
+      <c r="G78" s="13">
+        <v>45131</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="4">
+        <v>200</v>
+      </c>
+      <c r="K78" s="5">
+        <v>200</v>
+      </c>
       <c r="M78" s="13"/>
       <c r="N78" s="14"/>
       <c r="O78" s="14"/>
@@ -29806,11 +29906,11 @@
       <c r="C87" s="48"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>2965</v>
+        <v>3250</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>6</v>
@@ -29819,11 +29919,11 @@
       <c r="I87" s="48"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>1615</v>
+        <v>1815</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>2525</v>
+        <v>2725</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>6</v>
@@ -29832,11 +29932,11 @@
       <c r="O87" s="48"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1220</v>
+        <v>1380</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>1930</v>
+        <v>2130</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>6</v>
@@ -29871,7 +29971,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>1210</v>
+        <v>1370</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>9</v>
@@ -29885,7 +29985,7 @@
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>1615</v>
+        <v>1815</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -29906,7 +30006,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>1390</v>
+        <v>1590</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -29916,11 +30016,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>GLL 0927</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>1590</v>
+        <v>1790</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -29949,12 +30049,13 @@
       <c r="E102" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="20" t="s">
-        <v>8</v>
+      <c r="F102" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>GLL 0927</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1590</v>
+        <v>1735</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -29973,7 +30074,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>1590</v>
+        <v>1735</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -29987,7 +30088,7 @@
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1590</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -30007,7 +30108,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>1260</v>
+        <v>1420</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -30017,11 +30118,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>1420</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -30041,7 +30142,7 @@
       </c>
       <c r="C105" s="19">
         <f>P27</f>
-        <v>1590</v>
+        <v>1790</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>8</v>
@@ -30055,7 +30156,7 @@
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -30075,7 +30176,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -30085,11 +30186,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -30109,7 +30210,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>810</v>
+        <v>1010</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -30119,11 +30220,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>1220</v>
+        <v>1370</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -30143,7 +30244,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>1615</v>
+        <v>1815</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -30153,11 +30254,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>1340</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -30176,7 +30277,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>14</v>
@@ -30190,7 +30291,7 @@
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -30209,7 +30310,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1220</v>
+        <v>1380</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -30223,7 +30324,7 @@
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>810</v>
+        <v>1010</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048F655E-3A7D-4B5E-B6B7-C6702876B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0F8BE-FD76-4B55-BA63-9CB18397E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="MAYO" sheetId="5" r:id="rId5"/>
     <sheet name="JUNIO" sheetId="6" r:id="rId6"/>
     <sheet name="JULIO " sheetId="9" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="430">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1323,6 +1324,9 @@
   </si>
   <si>
     <t>st domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nestle</t>
   </si>
 </sst>
 </file>
@@ -26675,8 +26679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G111"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27738,23 +27742,53 @@
       <c r="K19" s="5">
         <v>500</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
+      <c r="M19" s="13">
+        <v>45136</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="4">
+        <v>245</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>245</v>
+      </c>
+      <c r="S19" s="13">
+        <v>45136</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="4">
+        <v>245</v>
+      </c>
+      <c r="W19" s="5">
+        <v>245</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="13">
+        <v>45137</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="4">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>310</v>
+      </c>
       <c r="G20" s="13">
         <v>45135</v>
       </c>
@@ -27785,11 +27819,21 @@
       <c r="C21" s="14"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="13">
+        <v>45138</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="4">
+        <v>150</v>
+      </c>
+      <c r="K21" s="5">
+        <v>150</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -27919,11 +27963,11 @@
       <c r="C27" s="42"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>1690</v>
+        <v>1790</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>4015</v>
+        <v>4325</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>6</v>
@@ -27932,11 +27976,11 @@
       <c r="I27" s="42"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>1790</v>
+        <v>1940</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>3870</v>
+        <v>4020</v>
       </c>
       <c r="M27" s="40" t="s">
         <v>6</v>
@@ -27945,11 +27989,11 @@
       <c r="O27" s="42"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
-        <v>1980</v>
+        <v>2225</v>
       </c>
       <c r="Q27" s="16">
         <f>SUM(Q4:Q26)</f>
-        <v>2560</v>
+        <v>2805</v>
       </c>
       <c r="S27" s="40" t="s">
         <v>6</v>
@@ -27958,11 +28002,11 @@
       <c r="U27" s="42"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
-        <v>1670</v>
+        <v>1915</v>
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>3050</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -28696,11 +28740,21 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4">
+        <v>150</v>
+      </c>
+      <c r="E43" s="5">
+        <v>150</v>
+      </c>
       <c r="G43" s="13">
         <v>45131</v>
       </c>
@@ -28870,11 +28924,21 @@
       <c r="K46" s="5">
         <v>200</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="5"/>
+      <c r="M46" s="13">
+        <v>45138</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>200</v>
+      </c>
       <c r="S46" s="13">
         <v>45135</v>
       </c>
@@ -28897,11 +28961,21 @@
       <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="5"/>
+      <c r="G47" s="13">
+        <v>45136</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="4">
+        <v>245</v>
+      </c>
+      <c r="K47" s="5">
+        <v>245</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -29097,11 +29171,11 @@
       <c r="C56" s="42"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>1210</v>
+        <v>1360</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>2765</v>
+        <v>2915</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>6</v>
@@ -29110,11 +29184,11 @@
       <c r="I56" s="42"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>2035</v>
+        <v>2280</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>2275</v>
+        <v>2520</v>
       </c>
       <c r="M56" s="40" t="s">
         <v>6</v>
@@ -29123,11 +29197,11 @@
       <c r="O56" s="42"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>1820</v>
+        <v>1980</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>2725</v>
+        <v>2925</v>
       </c>
       <c r="S56" s="40" t="s">
         <v>6</v>
@@ -30072,11 +30146,21 @@
       <c r="K79" s="5">
         <v>285</v>
       </c>
-      <c r="M79" s="13"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="5"/>
+      <c r="M79" s="13">
+        <v>45138</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>200</v>
+      </c>
       <c r="S79" s="13"/>
       <c r="T79" s="14"/>
       <c r="U79" s="14"/>
@@ -30151,11 +30235,21 @@
       <c r="C82" s="14"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="5"/>
+      <c r="G82" s="13">
+        <v>45138</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J82" s="4">
+        <v>100</v>
+      </c>
+      <c r="K82" s="5">
+        <v>285</v>
+      </c>
       <c r="M82" s="13"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
@@ -30276,11 +30370,11 @@
       <c r="I87" s="42"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>2015</v>
+        <v>2115</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>3760</v>
+        <v>4045</v>
       </c>
       <c r="M87" s="40" t="s">
         <v>6</v>
@@ -30289,11 +30383,11 @@
       <c r="O87" s="42"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1640</v>
+        <v>1800</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>3130</v>
+        <v>3330</v>
       </c>
       <c r="S87" s="40" t="s">
         <v>6</v>
@@ -30328,7 +30422,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>1670</v>
+        <v>1915</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>9</v>
@@ -30342,7 +30436,7 @@
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>2035</v>
+        <v>2280</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -30363,7 +30457,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>1790</v>
+        <v>1940</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -30373,11 +30467,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>GBP 3078</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>2015</v>
+        <v>2225</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -30398,7 +30492,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>1690</v>
+        <v>1790</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -30408,11 +30502,11 @@
       </c>
       <c r="F102" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1995</v>
+        <v>2115</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -30431,7 +30525,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>2035</v>
+        <v>2280</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -30441,11 +30535,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -30465,7 +30559,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>1820</v>
+        <v>1980</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -30479,7 +30573,7 @@
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>1820</v>
+        <v>1980</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -30499,7 +30593,7 @@
       </c>
       <c r="C105" s="19">
         <f>P27</f>
-        <v>1980</v>
+        <v>2225</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>8</v>
@@ -30513,7 +30607,7 @@
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>1790</v>
+        <v>1940</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -30543,11 +30637,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>1690</v>
+        <v>1915</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -30567,7 +30661,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>1210</v>
+        <v>1360</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -30577,11 +30671,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>1670</v>
+        <v>1800</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -30601,7 +30695,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>2015</v>
+        <v>2115</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -30611,11 +30705,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>1640</v>
+        <v>1790</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -30667,7 +30761,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1640</v>
+        <v>1800</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -30681,7 +30775,7 @@
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>1360</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">
@@ -30759,10 +30853,2499 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FC3020-583B-4851-8209-30A45B953C66}">
+  <dimension ref="A1:W112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="G1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="M1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="S1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="39"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="15">
+        <f>SUM(D4:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <f>SUM(E4:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="15">
+        <f>SUM(J4:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <f>SUM(K4:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="15">
+        <f>SUM(P4:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>SUM(Q4:Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="15">
+        <f>SUM(V4:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
+        <f>SUM(W4:W26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="G30" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="M30" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="45"/>
+      <c r="S30" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="45"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="48"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="5"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="5"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="9"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="12"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="38"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="5"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="5"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="5"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="5"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="5"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="5"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="5"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="5"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="5"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="15">
+        <f>SUM(D33:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="16">
+        <f>SUM(E33:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="15">
+        <f>SUM(J33:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <f>SUM(K33:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="41"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="15">
+        <f>SUM(P33:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16">
+        <f>SUM(Q33:Q55)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" s="41"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="15">
+        <f>SUM(V33:V55)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="16">
+        <f>SUM(W33:W55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="G61" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+      <c r="M61" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="45"/>
+      <c r="S61" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="45"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="48"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="48"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="48"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="5"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="5"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="5"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="5"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="5"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="5"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="5"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="5"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="5"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="9"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="9"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="9"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="5"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="5"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="12"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="12"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="12"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="5"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="5"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="5"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="5"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="5"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="5"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="5"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="5"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="5"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="5"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="5"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="5"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="5"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="5"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="5"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="5"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="5"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="5"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="5"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="5"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="5"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="5"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="5"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="5"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="5"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="5"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="5"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="5"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="5"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="5"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="5"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="5"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="5"/>
+    </row>
+    <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="15">
+        <f>SUM(D64:D86)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="16">
+        <f>SUM(E64:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="15">
+        <f>SUM(J64:J86)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="16">
+        <f>SUM(K64:K86)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N87" s="41"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="15">
+        <f>SUM(P64:P86)</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="16">
+        <f>SUM(Q64:Q86)</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T87" s="41"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="15">
+        <f>SUM(V64:V86)</f>
+        <v>0</v>
+      </c>
+      <c r="W87" s="16">
+        <f>SUM(W64:W86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L99" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="19">
+        <f>V27</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="20" t="str">
+        <f>VLOOKUP(G100,$C$100:$D$111,2,0)</f>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G100" s="21">
+        <f>LARGE($C$100:$C$111,A100)</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="L100" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="19">
+        <f>J27</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="20" t="str">
+        <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G101" s="21">
+        <f>LARGE($C$100:$C$111,A101)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="L101" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="19">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G102" s="21">
+        <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="18"/>
+      <c r="L102" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="19">
+        <f>J56</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G103" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="L103" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="19">
+        <f>P56</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G104" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="L104" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="19">
+        <f>P27</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G105" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="L105" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="19">
+        <f>V56</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G106" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="L106" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M106" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="19">
+        <f>D56</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G107" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="L107" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="19">
+        <f>J87</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G108" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="18"/>
+      <c r="L108" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M108" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>10</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="19">
+        <f>D87</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G109" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="18"/>
+      <c r="L109" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M109" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>11</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="19">
+        <f>P87</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G110" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="18"/>
+      <c r="L110" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M110" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>12</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="24">
+        <f>V87</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G111" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="18"/>
+      <c r="L111" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M111" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F112" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C5:R83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB2CB5C-E3FE-4399-9C24-D6978ED14864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="AGOSTO" sheetId="10" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="437">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1339,17 +1345,20 @@
   </si>
   <si>
     <t xml:space="preserve">NESTLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loja </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1735,8 +1744,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1755,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1764,12 +1773,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1924,7 +1933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1957,9 +1966,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1992,6 +2018,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2167,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -5856,7 +5899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
@@ -9602,7 +9645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
@@ -13823,7 +13866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView topLeftCell="A100" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
@@ -17976,7 +18019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView topLeftCell="A89" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -22498,7 +22541,7 @@
       <c r="F112" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="L100:M111">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L100:M111">
     <sortCondition ref="L100"/>
   </sortState>
   <mergeCells count="24">
@@ -22533,7 +22576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -26654,7 +26697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -30831,11 +30874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31025,28 +31068,42 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45110</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="2">
+        <v>45142</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>180</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="5"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="S5" s="2">
+        <v>45111</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="V5" s="4"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="5">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31535,7 +31592,7 @@
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="M27" s="46" t="s">
         <v>6</v>
@@ -31561,7 +31618,7 @@
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>150</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -31741,21 +31798,49 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D34" s="4">
+        <v>100</v>
+      </c>
+      <c r="E34" s="5">
+        <v>830</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
+      <c r="K34" s="5">
+        <v>180</v>
+      </c>
+      <c r="M34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>160</v>
+      </c>
       <c r="S34" s="2">
         <v>45141</v>
       </c>
@@ -32242,11 +32327,11 @@
       <c r="C56" s="48"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>380</v>
+        <v>1210</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>6</v>
@@ -32259,7 +32344,7 @@
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>6</v>
@@ -32268,11 +32353,11 @@
       <c r="O56" s="48"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>6</v>
@@ -32418,11 +32503,19 @@
       <c r="E64" s="5">
         <v>150</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="G64" s="2">
+        <v>45142</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J64" s="4"/>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5">
+        <v>150</v>
+      </c>
       <c r="M64" s="2">
         <v>45141</v>
       </c>
@@ -32465,11 +32558,19 @@
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
       <c r="K65" s="5"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
+      <c r="M65" s="2">
+        <v>45142</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="P65" s="4"/>
-      <c r="Q65" s="5"/>
+      <c r="Q65" s="5">
+        <v>200</v>
+      </c>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
@@ -32477,11 +32578,19 @@
       <c r="W65" s="5"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5">
+        <v>210</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -32950,7 +33059,7 @@
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>650</v>
+        <v>860</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>6</v>
@@ -32963,7 +33072,7 @@
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>6</v>
@@ -32976,7 +33085,7 @@
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>6</v>
@@ -33021,11 +33130,11 @@
       </c>
       <c r="F100" s="20" t="str">
         <f>VLOOKUP(G100,$C$100:$D$111,2,0)</f>
-        <v>PCS 1771</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -33056,11 +33165,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>GIR 0872</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -33091,11 +33200,11 @@
       </c>
       <c r="F102" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -33122,12 +33231,13 @@
       <c r="E103" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="20" t="s">
-        <v>68</v>
+      <c r="F103" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>POS 0267</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -33147,7 +33257,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -33190,11 +33300,11 @@
       </c>
       <c r="F105" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -33247,7 +33357,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -33257,11 +33367,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -33291,11 +33401,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -33322,8 +33432,9 @@
       <c r="E109" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F109" s="20" t="s">
-        <v>16</v>
+      <c r="F109" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
@@ -33438,7 +33549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C5:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A733B34-1467-4624-8936-51E7D7290124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C17EE8-FD9F-4AD1-B21C-0F0F2B7EFB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="461">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1417,6 +1417,9 @@
   </si>
   <si>
     <t>Expertisima</t>
+  </si>
+  <si>
+    <t>Empretrasn</t>
   </si>
 </sst>
 </file>
@@ -30946,8 +30949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D97" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31715,11 +31718,21 @@
       <c r="K14" s="5">
         <v>170</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="M14" s="13">
+        <v>45161</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>150</v>
+      </c>
       <c r="S14" s="13">
         <v>45154</v>
       </c>
@@ -31789,16 +31802,36 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="13">
+        <v>45161</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4">
+        <v>150</v>
+      </c>
+      <c r="E16" s="5">
+        <v>150</v>
+      </c>
+      <c r="G16" s="13">
+        <v>45160</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="4">
+        <v>160</v>
+      </c>
+      <c r="K16" s="5">
+        <v>160</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
@@ -31898,11 +31931,21 @@
       <c r="O19" s="14"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
+      <c r="S19" s="13">
+        <v>45161</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="4">
+        <v>160</v>
+      </c>
+      <c r="W19" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -32066,11 +32109,11 @@
       <c r="C27" s="48"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>1670</v>
+        <v>1820</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>2105</v>
+        <v>2255</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>6</v>
@@ -32079,11 +32122,11 @@
       <c r="I27" s="48"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>1390</v>
+        <v>1550</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>2365</v>
+        <v>2525</v>
       </c>
       <c r="M27" s="46" t="s">
         <v>6</v>
@@ -32092,11 +32135,11 @@
       <c r="O27" s="48"/>
       <c r="P27" s="15">
         <f>SUM(P4:P26)</f>
-        <v>1525</v>
+        <v>1675</v>
       </c>
       <c r="Q27" s="16">
         <f>SUM(Q4:Q26)</f>
-        <v>1565</v>
+        <v>1715</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>6</v>
@@ -32105,11 +32148,11 @@
       <c r="U27" s="48"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
-        <v>1765</v>
+        <v>1925</v>
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>3015</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -32871,16 +32914,36 @@
       <c r="K43" s="5">
         <v>200</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="5"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="5"/>
+      <c r="M43" s="13">
+        <v>45161</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>160</v>
+      </c>
+      <c r="S43" s="13">
+        <v>45161</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" s="4">
+        <v>150</v>
+      </c>
+      <c r="W43" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -32925,11 +32988,21 @@
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="13">
+        <v>45161</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4">
+        <v>170</v>
+      </c>
+      <c r="E45" s="5">
+        <v>170</v>
+      </c>
       <c r="G45" s="13">
         <v>45159</v>
       </c>
@@ -32994,11 +33067,21 @@
       <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="5"/>
+      <c r="G47" s="13">
+        <v>45161</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="4">
+        <v>160</v>
+      </c>
+      <c r="K47" s="5">
+        <v>160</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -33194,11 +33277,11 @@
       <c r="C56" s="48"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>1645</v>
+        <v>1815</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>2840</v>
+        <v>3010</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>6</v>
@@ -33207,11 +33290,11 @@
       <c r="I56" s="48"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>1625</v>
+        <v>1785</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>2455</v>
+        <v>2615</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>6</v>
@@ -33220,11 +33303,11 @@
       <c r="O56" s="48"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>1470</v>
+        <v>1630</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>1590</v>
+        <v>1750</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>6</v>
@@ -33233,11 +33316,11 @@
       <c r="U56" s="48"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>1845</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -33893,11 +33976,21 @@
       <c r="K74" s="5">
         <v>580</v>
       </c>
-      <c r="M74" s="13"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="5"/>
+      <c r="M74" s="13">
+        <v>45161</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="P74" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>500</v>
+      </c>
       <c r="S74" s="13"/>
       <c r="T74" s="14"/>
       <c r="U74" s="14"/>
@@ -33921,7 +34014,7 @@
         <v>270</v>
       </c>
       <c r="G75" s="13">
-        <v>45161</v>
+        <v>45160</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>448</v>
@@ -33947,16 +34040,36 @@
       <c r="W75" s="5"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="5"/>
+      <c r="A76" s="13">
+        <v>45161</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="4">
+        <v>120</v>
+      </c>
+      <c r="E76" s="5">
+        <v>120</v>
+      </c>
+      <c r="G76" s="13">
+        <v>45161</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J76" s="4">
+        <v>100</v>
+      </c>
+      <c r="K76" s="5">
+        <v>520</v>
+      </c>
       <c r="M76" s="13"/>
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
@@ -33969,11 +34082,21 @@
       <c r="W76" s="5"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
+      <c r="A77" s="13">
+        <v>45161</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="4">
+        <v>160</v>
+      </c>
+      <c r="E77" s="5">
+        <v>160</v>
+      </c>
       <c r="G77" s="13"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
@@ -34196,11 +34319,11 @@
       <c r="C87" s="48"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
-        <v>1230</v>
+        <v>1510</v>
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>3065</v>
+        <v>3345</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>6</v>
@@ -34209,11 +34332,11 @@
       <c r="I87" s="48"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>3130</v>
+        <v>3650</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>6</v>
@@ -34222,11 +34345,11 @@
       <c r="O87" s="48"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>6</v>
@@ -34261,7 +34384,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>1765</v>
+        <v>1925</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>9</v>
@@ -34275,7 +34398,7 @@
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>1765</v>
+        <v>1925</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -34296,7 +34419,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>1390</v>
+        <v>1550</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -34310,7 +34433,7 @@
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>1670</v>
+        <v>1820</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -34331,7 +34454,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>1670</v>
+        <v>1820</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -34345,7 +34468,7 @@
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1645</v>
+        <v>1815</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -34364,7 +34487,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>1625</v>
+        <v>1785</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -34378,7 +34501,7 @@
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>1625</v>
+        <v>1785</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -34398,7 +34521,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>1470</v>
+        <v>1630</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -34412,7 +34535,7 @@
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>1525</v>
+        <v>1675</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -34432,7 +34555,7 @@
       </c>
       <c r="C105" s="19">
         <f>P27</f>
-        <v>1525</v>
+        <v>1675</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>8</v>
@@ -34446,7 +34569,7 @@
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>1470</v>
+        <v>1630</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -34466,7 +34589,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -34480,7 +34603,7 @@
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -34500,7 +34623,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>1645</v>
+        <v>1815</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -34514,7 +34637,7 @@
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1550</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -34534,7 +34657,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -34544,11 +34667,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>1315</v>
+        <v>1510</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -34567,7 +34690,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>1230</v>
+        <v>1510</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>14</v>
@@ -34577,11 +34700,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>1240</v>
+        <v>1415</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -34600,7 +34723,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -34610,11 +34733,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>1230</v>
+        <v>1340</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="542">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1650,6 +1650,15 @@
   </si>
   <si>
     <t>unilever STANBY</t>
+  </si>
+  <si>
+    <t>palts benavides</t>
+  </si>
+  <si>
+    <t>expertisima</t>
+  </si>
+  <si>
+    <t>hb</t>
   </si>
 </sst>
 </file>
@@ -6170,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,11 +6691,21 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="10">
+        <v>45217</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="12">
+        <v>500</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -6841,11 +6860,21 @@
       <c r="C15" s="14"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+      <c r="G15" s="13">
+        <v>45218</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+      <c r="K15" s="5">
+        <v>285</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -7107,11 +7136,11 @@
       <c r="C27" s="48"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>2150</v>
+        <v>2650</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>6</v>
@@ -7120,11 +7149,11 @@
       <c r="I27" s="48"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>2510</v>
+        <v>2795</v>
       </c>
       <c r="M27" s="46" t="s">
         <v>6</v>
@@ -7636,11 +7665,21 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="4">
+        <v>100</v>
+      </c>
+      <c r="E39" s="5">
+        <v>300</v>
+      </c>
       <c r="G39" s="2">
         <v>45212</v>
       </c>
@@ -7785,11 +7824,21 @@
       <c r="C42" s="14"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
+      <c r="G42" s="13">
+        <v>45218</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="J42" s="4">
+        <v>140</v>
+      </c>
+      <c r="K42" s="5">
+        <v>140</v>
+      </c>
       <c r="M42" s="13">
         <v>45217</v>
       </c>
@@ -7822,11 +7871,21 @@
       <c r="I43" s="14"/>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="5"/>
+      <c r="M43" s="13">
+        <v>45218</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="P43" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>200</v>
+      </c>
       <c r="S43" s="13"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
@@ -8105,11 +8164,11 @@
       <c r="C56" s="48"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
-        <v>1620</v>
+        <v>1920</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>6</v>
@@ -8118,11 +8177,11 @@
       <c r="I56" s="48"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>970</v>
+        <v>1110</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>1870</v>
+        <v>2010</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>6</v>
@@ -8131,11 +8190,11 @@
       <c r="O56" s="48"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>1280</v>
+        <v>1380</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>2755</v>
+        <v>2955</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>6</v>
@@ -8495,11 +8554,21 @@
       <c r="Q67" s="5">
         <v>140</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="5"/>
+      <c r="S67" s="2">
+        <v>45218</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V67" s="4">
+        <v>140</v>
+      </c>
+      <c r="W67" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -8773,11 +8842,21 @@
       <c r="E73" s="5">
         <v>100</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="5"/>
+      <c r="G73" s="13">
+        <v>45218</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J73" s="4">
+        <v>100</v>
+      </c>
+      <c r="K73" s="5">
+        <v>300</v>
+      </c>
       <c r="M73" s="13">
         <v>45217</v>
       </c>
@@ -8810,11 +8889,21 @@
       <c r="I74" s="14"/>
       <c r="J74" s="4"/>
       <c r="K74" s="5"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="5"/>
+      <c r="M74" s="13">
+        <v>45218</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="P74" s="4">
+        <v>140</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>140</v>
+      </c>
       <c r="S74" s="13"/>
       <c r="T74" s="14"/>
       <c r="U74" s="14"/>
@@ -9106,11 +9195,11 @@
       <c r="I87" s="48"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>1985</v>
+        <v>2285</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>6</v>
@@ -9119,11 +9208,11 @@
       <c r="O87" s="48"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1150</v>
+        <v>1290</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>2835</v>
+        <v>2975</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>6</v>
@@ -9132,11 +9221,11 @@
       <c r="U87" s="48"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="W87" s="16">
         <f>SUM(W64:W86)</f>
-        <v>605</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9171,7 +9260,7 @@
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>1280</v>
+        <v>1380</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -9192,7 +9281,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -9202,11 +9291,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>PTO 0223</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>1210</v>
+        <v>1290</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -9227,7 +9316,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -9241,7 +9330,7 @@
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -9260,7 +9349,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>970</v>
+        <v>1110</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -9270,11 +9359,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1210</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -9294,7 +9383,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>1280</v>
+        <v>1380</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -9302,8 +9391,9 @@
       <c r="E104" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="20" t="s">
-        <v>16</v>
+      <c r="F104" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PCS 1771</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
@@ -9371,11 +9461,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>980</v>
+        <v>1110</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -9395,7 +9485,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -9405,11 +9495,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>970</v>
+        <v>1080</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -9429,7 +9519,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -9443,7 +9533,7 @@
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -9476,7 +9566,7 @@
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -9495,7 +9585,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1150</v>
+        <v>1290</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -9509,7 +9599,7 @@
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">
@@ -9528,7 +9618,7 @@
       </c>
       <c r="C111" s="24">
         <f>V87</f>
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>12</v>

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2814c5a2fbe62b/Documents/GitHub/OFICINA/DOC 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{920C06DB-AE42-40D6-B14D-C29F1332157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A010B8D-9B4A-4061-9F53-0787A4C220BB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{920C06DB-AE42-40D6-B14D-C29F1332157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F42EA33-1CA9-420D-B850-3974844DDC7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="586">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1795,6 +1795,9 @@
   </si>
   <si>
     <t>GUAYQUIL</t>
+  </si>
+  <si>
+    <t>DISMUVISA</t>
   </si>
 </sst>
 </file>
@@ -10647,8 +10650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E111" sqref="E100:G111"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11381,11 +11384,21 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="13">
+        <v>45251</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="4">
+        <v>150</v>
+      </c>
+      <c r="E16" s="5">
+        <v>150</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -11428,11 +11441,21 @@
       <c r="O17" s="14"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="5"/>
+      <c r="S17" s="13">
+        <v>45251</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="V17" s="4">
+        <v>190</v>
+      </c>
+      <c r="W17" s="5">
+        <v>190</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -11640,11 +11663,11 @@
       <c r="C27" s="49"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>1280</v>
+        <v>1430</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>3090</v>
+        <v>3240</v>
       </c>
       <c r="G27" s="47" t="s">
         <v>6</v>
@@ -11679,11 +11702,11 @@
       <c r="U27" s="49"/>
       <c r="V27" s="15">
         <f>SUM(V4:V26)</f>
-        <v>1475</v>
+        <v>1665</v>
       </c>
       <c r="W27" s="16">
         <f>SUM(W4:W26)</f>
-        <v>2685</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -12381,11 +12404,22 @@
       <c r="K42" s="5">
         <v>200</v>
       </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="13">
+        <v>45251</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="P42" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>150</v>
+      </c>
       <c r="S42" s="13"/>
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
@@ -12534,11 +12568,21 @@
       <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="5"/>
+      <c r="G47" s="13">
+        <v>45251</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="4">
+        <v>170</v>
+      </c>
+      <c r="K47" s="5">
+        <v>170</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -12747,11 +12791,11 @@
       <c r="I56" s="49"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>1630</v>
+        <v>1800</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>2350</v>
+        <v>2520</v>
       </c>
       <c r="M56" s="47" t="s">
         <v>6</v>
@@ -12760,11 +12804,11 @@
       <c r="O56" s="49"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>1380</v>
+        <v>1530</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>1540</v>
+        <v>1690</v>
       </c>
       <c r="S56" s="47" t="s">
         <v>6</v>
@@ -13542,11 +13586,21 @@
       <c r="Q74" s="5">
         <v>140</v>
       </c>
-      <c r="S74" s="13"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="5"/>
+      <c r="S74" s="13">
+        <v>45251</v>
+      </c>
+      <c r="T74" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="U74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V74" s="4">
+        <v>140</v>
+      </c>
+      <c r="W74" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
@@ -13594,11 +13648,21 @@
       <c r="Q75" s="5">
         <v>150</v>
       </c>
-      <c r="S75" s="13"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="5"/>
+      <c r="S75" s="13">
+        <v>45251</v>
+      </c>
+      <c r="T75" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="U75" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="V75" s="4">
+        <v>140</v>
+      </c>
+      <c r="W75" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
@@ -13606,16 +13670,36 @@
       <c r="C76" s="14"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="5"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="5"/>
+      <c r="G76" s="13">
+        <v>45251</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="J76" s="4">
+        <v>100</v>
+      </c>
+      <c r="K76" s="5">
+        <v>100</v>
+      </c>
+      <c r="M76" s="13">
+        <v>45251</v>
+      </c>
+      <c r="N76" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>150</v>
+      </c>
       <c r="S76" s="13"/>
       <c r="T76" s="14"/>
       <c r="U76" s="14"/>
@@ -13863,11 +13947,11 @@
       <c r="I87" s="49"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>1370</v>
+        <v>1470</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>2960</v>
+        <v>3060</v>
       </c>
       <c r="M87" s="47" t="s">
         <v>6</v>
@@ -13876,11 +13960,11 @@
       <c r="O87" s="49"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1310</v>
+        <v>1460</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>2760</v>
+        <v>2910</v>
       </c>
       <c r="S87" s="47" t="s">
         <v>6</v>
@@ -13889,11 +13973,11 @@
       <c r="U87" s="49"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
-        <v>1180</v>
+        <v>1460</v>
       </c>
       <c r="W87" s="16">
         <f>SUM(W64:W86)</f>
-        <v>2400</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13914,7 +13998,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>1475</v>
+        <v>1665</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>9</v>
@@ -13928,7 +14012,7 @@
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>1630</v>
+        <v>1800</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -13959,11 +14043,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>AAY 0116</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>1520</v>
+        <v>1665</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -13984,7 +14068,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>1280</v>
+        <v>1430</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -13994,11 +14078,11 @@
       </c>
       <c r="F102" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1475</v>
+        <v>1530</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -14017,7 +14101,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>1630</v>
+        <v>1800</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -14027,11 +14111,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1520</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -14051,7 +14135,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>1380</v>
+        <v>1530</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -14061,11 +14145,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>1380</v>
+        <v>1470</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -14095,11 +14179,11 @@
       </c>
       <c r="F105" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>1370</v>
+        <v>1460</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -14128,11 +14212,11 @@
         <v>22</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>1370</v>
+        <v>1460</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -14162,11 +14246,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1430</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -14186,7 +14270,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>1370</v>
+        <v>1470</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -14194,12 +14278,13 @@
       <c r="E108" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F108" s="20" t="s">
-        <v>16</v>
+      <c r="F108" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR 0872</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1390</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -14228,11 +14313,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>POS 0267</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>1280</v>
+        <v>1370</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -14251,7 +14336,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1310</v>
+        <v>1460</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -14261,11 +14346,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1310</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">
@@ -14284,7 +14369,7 @@
       </c>
       <c r="C111" s="19">
         <f>V87</f>
-        <v>1180</v>
+        <v>1460</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>12</v>

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2814c5a2fbe62b/Documents/GitHub/OFICINA/DOC 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_97794EFC11FD8B1882EC80B00C59BE54CE97962C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56910458-F90E-4333-BD21-9C9610AEF1DF}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_97794EFC11FD8B1882EC80B00C59BE54CE97962C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6081F736-6CEF-4DBA-870F-7877110B86DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5441" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5469" uniqueCount="594">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1810,6 +1810,18 @@
   </si>
   <si>
     <t>PICA</t>
+  </si>
+  <si>
+    <t>PLASTEX</t>
+  </si>
+  <si>
+    <t>VIAJES FRANKLIN ABRIL</t>
+  </si>
+  <si>
+    <t>GABETAS</t>
+  </si>
+  <si>
+    <t>ISIDRO AYORA</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1891,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1937,6 +1949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,7 +2227,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2284,6 +2302,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10662,8 +10689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11555,12 +11582,20 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>45254</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+        <v>45257</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4">
+        <v>150</v>
+      </c>
+      <c r="E19" s="5">
+        <v>150</v>
+      </c>
       <c r="G19" s="13">
         <v>45254</v>
       </c>
@@ -11601,11 +11636,21 @@
       <c r="C20" s="14"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
+      <c r="G20" s="13">
+        <v>45255</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+      <c r="K20" s="5">
+        <v>540</v>
+      </c>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -11633,11 +11678,21 @@
       <c r="C21" s="14"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="13">
+        <v>45257</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
+      <c r="K21" s="5">
+        <v>240</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -11767,11 +11822,11 @@
       <c r="C27" s="49"/>
       <c r="D27" s="15">
         <f>SUM(D4:D26)</f>
-        <v>1630</v>
+        <v>1780</v>
       </c>
       <c r="E27" s="16">
         <f>SUM(E4:E26)</f>
-        <v>4050</v>
+        <v>4200</v>
       </c>
       <c r="G27" s="47" t="s">
         <v>6</v>
@@ -11780,11 +11835,11 @@
       <c r="I27" s="49"/>
       <c r="J27" s="15">
         <f>SUM(J4:J26)</f>
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="K27" s="16">
         <f>SUM(K4:K26)</f>
-        <v>2895</v>
+        <v>3675</v>
       </c>
       <c r="M27" s="47" t="s">
         <v>6</v>
@@ -12524,21 +12579,13 @@
       <c r="Q42" s="5">
         <v>190</v>
       </c>
-      <c r="S42" s="13">
-        <v>45252</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="V42" s="4">
-        <v>120</v>
-      </c>
-      <c r="W42" s="5">
-        <v>120</v>
-      </c>
+      <c r="S42" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="52"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -12590,16 +12637,16 @@
         <v>45252</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>60</v>
+        <v>509</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>67</v>
+        <v>548</v>
       </c>
       <c r="V43" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W43" s="5">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -12646,11 +12693,21 @@
       <c r="Q44" s="5">
         <v>150</v>
       </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="5"/>
+      <c r="S44" s="13">
+        <v>45252</v>
+      </c>
+      <c r="T44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V44" s="4">
+        <v>150</v>
+      </c>
+      <c r="W44" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -12683,16 +12740,36 @@
       <c r="K45" s="5">
         <v>130</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="5"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="5"/>
+      <c r="M45" s="13">
+        <v>45257</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>200</v>
+      </c>
+      <c r="S45" s="13">
+        <v>45257</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="U45" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V45" s="4">
+        <v>130</v>
+      </c>
+      <c r="W45" s="5">
+        <v>130</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
@@ -12735,10 +12812,18 @@
       <c r="W46" s="5"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="13">
+        <v>45257</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4">
+        <v>160</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="G47" s="13">
         <v>45251</v>
@@ -12868,11 +12953,21 @@
       <c r="C51" s="14"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="5"/>
+      <c r="G51" s="13">
+        <v>45257</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="4">
+        <v>150</v>
+      </c>
+      <c r="K51" s="5">
+        <v>150</v>
+      </c>
       <c r="M51" s="13"/>
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
@@ -12980,7 +13075,7 @@
       <c r="C56" s="49"/>
       <c r="D56" s="15">
         <f>SUM(D33:D55)</f>
-        <v>1680</v>
+        <v>1840</v>
       </c>
       <c r="E56" s="16">
         <f>SUM(E33:E55)</f>
@@ -12993,11 +13088,11 @@
       <c r="I56" s="49"/>
       <c r="J56" s="15">
         <f>SUM(J33:J55)</f>
-        <v>2180</v>
+        <v>2330</v>
       </c>
       <c r="K56" s="16">
         <f>SUM(K33:K55)</f>
-        <v>2950</v>
+        <v>3100</v>
       </c>
       <c r="M56" s="47" t="s">
         <v>6</v>
@@ -13006,11 +13101,11 @@
       <c r="O56" s="49"/>
       <c r="P56" s="15">
         <f>SUM(P33:P55)</f>
-        <v>1870</v>
+        <v>2030</v>
       </c>
       <c r="Q56" s="16">
         <f>SUM(Q33:Q55)</f>
-        <v>2030</v>
+        <v>2230</v>
       </c>
       <c r="S56" s="47" t="s">
         <v>6</v>
@@ -13019,11 +13114,11 @@
       <c r="U56" s="49"/>
       <c r="V56" s="15">
         <f>SUM(V33:V55)</f>
-        <v>1580</v>
+        <v>1710</v>
       </c>
       <c r="W56" s="16">
         <f>SUM(W33:W55)</f>
-        <v>1580</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -14047,16 +14142,36 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="5"/>
+      <c r="A79" s="13">
+        <v>45257</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="4">
+        <v>130</v>
+      </c>
+      <c r="E79" s="5">
+        <v>130</v>
+      </c>
+      <c r="G79" s="13">
+        <v>45255</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="4">
+        <v>100</v>
+      </c>
+      <c r="K79" s="5">
+        <v>500</v>
+      </c>
       <c r="M79" s="13">
         <v>45253</v>
       </c>
@@ -14072,11 +14187,21 @@
       <c r="Q79" s="5">
         <v>150</v>
       </c>
-      <c r="S79" s="13"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="5"/>
+      <c r="S79" s="13">
+        <v>45254</v>
+      </c>
+      <c r="T79" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U79" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V79" s="4">
+        <v>150</v>
+      </c>
+      <c r="W79" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
@@ -14084,11 +14209,21 @@
       <c r="C80" s="14"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="5"/>
+      <c r="G80" s="13">
+        <v>45257</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="J80" s="4">
+        <v>100</v>
+      </c>
+      <c r="K80" s="5">
+        <v>100</v>
+      </c>
       <c r="M80" s="13">
         <v>45254</v>
       </c>
@@ -14102,11 +14237,21 @@
       <c r="Q80" s="5">
         <v>220</v>
       </c>
-      <c r="S80" s="13"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="5"/>
+      <c r="S80" s="13">
+        <v>45256</v>
+      </c>
+      <c r="T80" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="U80" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="V80" s="4">
+        <v>100</v>
+      </c>
+      <c r="W80" s="5">
+        <v>285</v>
+      </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -14119,16 +14264,36 @@
       <c r="I81" s="14"/>
       <c r="J81" s="4"/>
       <c r="K81" s="5"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="5"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="5"/>
+      <c r="M81" s="13">
+        <v>45256</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O81" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="P81" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>580</v>
+      </c>
+      <c r="S81" s="13">
+        <v>45257</v>
+      </c>
+      <c r="T81" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="U81" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="V81" s="4">
+        <v>100</v>
+      </c>
+      <c r="W81" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -14248,11 +14413,11 @@
       <c r="C87" s="49"/>
       <c r="D87" s="15">
         <f>SUM(D64:D86)</f>
-        <v>1490</v>
+        <v>1620</v>
       </c>
       <c r="E87" s="16">
         <f>SUM(E64:E86)</f>
-        <v>3250</v>
+        <v>3380</v>
       </c>
       <c r="G87" s="47" t="s">
         <v>6</v>
@@ -14261,11 +14426,11 @@
       <c r="I87" s="49"/>
       <c r="J87" s="15">
         <f>SUM(J64:J86)</f>
-        <v>1570</v>
+        <v>1770</v>
       </c>
       <c r="K87" s="16">
         <f>SUM(K64:K86)</f>
-        <v>3530</v>
+        <v>4130</v>
       </c>
       <c r="M87" s="47" t="s">
         <v>6</v>
@@ -14274,11 +14439,11 @@
       <c r="O87" s="49"/>
       <c r="P87" s="15">
         <f>SUM(P64:P86)</f>
-        <v>1870</v>
+        <v>1970</v>
       </c>
       <c r="Q87" s="16">
         <f>SUM(Q64:Q86)</f>
-        <v>3540</v>
+        <v>4120</v>
       </c>
       <c r="S87" s="47" t="s">
         <v>6</v>
@@ -14287,11 +14452,11 @@
       <c r="U87" s="49"/>
       <c r="V87" s="15">
         <f>SUM(V64:V86)</f>
-        <v>1920</v>
+        <v>2270</v>
       </c>
       <c r="W87" s="16">
         <f>SUM(W64:W86)</f>
-        <v>3140</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14326,7 +14491,7 @@
       </c>
       <c r="G100" s="21">
         <f>LARGE($C$100:$C$111,A100)</f>
-        <v>2180</v>
+        <v>2330</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -14347,7 +14512,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>7</v>
@@ -14357,11 +14522,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" ref="F101:F111" si="0">VLOOKUP(G101,$C$100:$D$111,2,0)</f>
-        <v>PTO 0223</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G101" s="21">
         <f>LARGE($C$100:$C$111,A101)</f>
-        <v>2025</v>
+        <v>2270</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -14382,7 +14547,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>1630</v>
+        <v>1780</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -14396,7 +14561,7 @@
       </c>
       <c r="G102" s="21">
         <f t="shared" ref="G102:G111" si="1">LARGE($C$100:$C$111,A102)</f>
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="35" t="s">
@@ -14415,7 +14580,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>2180</v>
+        <v>2330</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -14425,11 +14590,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>1920</v>
+        <v>2030</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -14449,7 +14614,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>1870</v>
+        <v>2030</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>68</v>
@@ -14459,11 +14624,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>1870</v>
+        <v>2025</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -14491,12 +14656,13 @@
       <c r="E105" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="20" t="s">
-        <v>16</v>
+      <c r="F105" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>1870</v>
+        <v>1970</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -14516,7 +14682,7 @@
       </c>
       <c r="C106" s="19">
         <f>V56</f>
-        <v>1580</v>
+        <v>1710</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>13</v>
@@ -14530,7 +14696,7 @@
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>1680</v>
+        <v>1840</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -14550,7 +14716,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>1680</v>
+        <v>1840</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>10</v>
@@ -14564,7 +14730,7 @@
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>1630</v>
+        <v>1780</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -14584,7 +14750,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>1570</v>
+        <v>1770</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>15</v>
@@ -14594,11 +14760,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>1580</v>
+        <v>1770</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="35" t="s">
@@ -14617,7 +14783,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>1490</v>
+        <v>1620</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>14</v>
@@ -14627,11 +14793,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>1570</v>
+        <v>1710</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="35" t="s">
@@ -14650,7 +14816,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>1870</v>
+        <v>1970</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>16</v>
@@ -14664,7 +14830,7 @@
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>1490</v>
+        <v>1620</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="35" t="s">
@@ -14683,7 +14849,7 @@
       </c>
       <c r="C111" s="19">
         <f>V87</f>
-        <v>1920</v>
+        <v>2270</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>12</v>
@@ -14714,7 +14880,7 @@
       <c r="C113" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -14731,6 +14897,7 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
+    <mergeCell ref="S42:W42"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -14760,40 +14927,40 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="K7" s="62" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="K7" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="52"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
     </row>
     <row r="8" spans="3:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
@@ -14814,18 +14981,18 @@
       <c r="H8" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="50" t="s">
+      <c r="L8" s="66"/>
+      <c r="M8" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="52"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
@@ -14840,18 +15007,18 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L9" s="62"/>
-      <c r="M9" s="50" t="s">
+      <c r="L9" s="65"/>
+      <c r="M9" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
     </row>
     <row r="10" spans="3:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
@@ -14866,18 +15033,18 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59" t="s">
+      <c r="L10" s="61"/>
+      <c r="M10" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
@@ -14934,16 +15101,16 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="55"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="20" t="s">
@@ -14958,18 +15125,18 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="50" t="s">
+      <c r="L15" s="66"/>
+      <c r="M15" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="20" t="s">
@@ -14984,18 +15151,18 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L16" s="62"/>
-      <c r="M16" s="50" t="s">
+      <c r="L16" s="65"/>
+      <c r="M16" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
@@ -15010,18 +15177,18 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59" t="s">
+      <c r="L17" s="61"/>
+      <c r="M17" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="61"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="20" t="s">
@@ -15064,592 +15231,592 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="L20" s="62"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="55"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="50" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="50" t="s">
+      <c r="L22" s="65"/>
+      <c r="M22" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59" t="s">
+      <c r="L23" s="61"/>
+      <c r="M23" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="61"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="L26" s="62"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="52"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="55"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="50" t="s">
+      <c r="L27" s="66"/>
+      <c r="M27" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="52"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="55"/>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="65"/>
+      <c r="M28" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="52"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="55"/>
     </row>
     <row r="29" spans="3:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59" t="s">
+      <c r="L29" s="61"/>
+      <c r="M29" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="61"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="64"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="L32" s="62"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="52"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="55"/>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="50" t="s">
+      <c r="L33" s="66"/>
+      <c r="M33" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="52"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="55"/>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L34" s="62"/>
-      <c r="M34" s="50" t="s">
+      <c r="L34" s="65"/>
+      <c r="M34" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="52"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="55"/>
     </row>
     <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="57" t="s">
+      <c r="K35" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59" t="s">
+      <c r="L35" s="61"/>
+      <c r="M35" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="61"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="64"/>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="L38" s="62"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="52"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="55"/>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L39" s="63"/>
-      <c r="M39" s="50" t="s">
+      <c r="L39" s="66"/>
+      <c r="M39" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="52"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="55"/>
     </row>
     <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="62" t="s">
+      <c r="K40" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L40" s="62"/>
-      <c r="M40" s="50" t="s">
+      <c r="L40" s="65"/>
+      <c r="M40" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="52"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="55"/>
     </row>
     <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="57" t="s">
+      <c r="K41" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="59" t="s">
+      <c r="L41" s="61"/>
+      <c r="M41" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="61"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="64"/>
     </row>
     <row r="44" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="L44" s="62"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="52"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="55"/>
     </row>
     <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="63" t="s">
+      <c r="K45" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L45" s="63"/>
-      <c r="M45" s="50" t="s">
+      <c r="L45" s="66"/>
+      <c r="M45" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="52"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="55"/>
     </row>
     <row r="46" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L46" s="62"/>
-      <c r="M46" s="50" t="s">
+      <c r="L46" s="65"/>
+      <c r="M46" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="52"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="55"/>
     </row>
     <row r="47" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K47" s="57" t="s">
+      <c r="K47" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L47" s="58"/>
-      <c r="M47" s="59" t="s">
+      <c r="L47" s="61"/>
+      <c r="M47" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="61"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="64"/>
     </row>
     <row r="50" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="52"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="55"/>
     </row>
     <row r="51" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K51" s="63" t="s">
+      <c r="K51" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L51" s="63"/>
-      <c r="M51" s="50" t="s">
+      <c r="L51" s="66"/>
+      <c r="M51" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="52"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="55"/>
     </row>
     <row r="52" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K52" s="62" t="s">
+      <c r="K52" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L52" s="62"/>
-      <c r="M52" s="50" t="s">
+      <c r="L52" s="65"/>
+      <c r="M52" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="52"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="55"/>
     </row>
     <row r="53" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K53" s="57" t="s">
+      <c r="K53" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="59" t="s">
+      <c r="L53" s="61"/>
+      <c r="M53" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="61"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="64"/>
     </row>
     <row r="56" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K56" s="62" t="s">
+      <c r="K56" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="L56" s="62"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="52"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="55"/>
     </row>
     <row r="57" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K57" s="63" t="s">
+      <c r="K57" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="L57" s="63"/>
-      <c r="M57" s="50" t="s">
+      <c r="L57" s="66"/>
+      <c r="M57" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="52"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="55"/>
     </row>
     <row r="58" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K58" s="62" t="s">
+      <c r="K58" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="L58" s="62"/>
-      <c r="M58" s="50" t="s">
+      <c r="L58" s="65"/>
+      <c r="M58" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="52"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="55"/>
     </row>
     <row r="59" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="57" t="s">
+      <c r="K59" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="50" t="s">
+      <c r="L59" s="61"/>
+      <c r="M59" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="52"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="55"/>
     </row>
     <row r="62" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K62" s="55" t="s">
+      <c r="K62" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="L62" s="56"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="52"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="55"/>
     </row>
     <row r="63" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K63" s="53" t="s">
+      <c r="K63" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L63" s="54"/>
-      <c r="M63" s="50" t="s">
+      <c r="L63" s="57"/>
+      <c r="M63" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="52"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="55"/>
     </row>
     <row r="64" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K64" s="55" t="s">
+      <c r="K64" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="L64" s="56"/>
-      <c r="M64" s="50" t="s">
+      <c r="L64" s="59"/>
+      <c r="M64" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="52"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="55"/>
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="57" t="s">
+      <c r="K65" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L65" s="58"/>
-      <c r="M65" s="50" t="s">
+      <c r="L65" s="61"/>
+      <c r="M65" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="52"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="55"/>
     </row>
     <row r="68" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K68" s="55" t="s">
+      <c r="K68" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="L68" s="56"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="52"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="55"/>
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="53" t="s">
+      <c r="K69" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L69" s="54"/>
-      <c r="M69" s="50" t="s">
+      <c r="L69" s="57"/>
+      <c r="M69" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="52"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="55"/>
     </row>
     <row r="70" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K70" s="55" t="s">
+      <c r="K70" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="L70" s="56"/>
-      <c r="M70" s="50" t="s">
+      <c r="L70" s="59"/>
+      <c r="M70" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="N70" s="51"/>
-      <c r="O70" s="51"/>
-      <c r="P70" s="51"/>
-      <c r="Q70" s="51"/>
-      <c r="R70" s="52"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="55"/>
     </row>
     <row r="71" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K71" s="57" t="s">
+      <c r="K71" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L71" s="58"/>
-      <c r="M71" s="50" t="s">
+      <c r="L71" s="61"/>
+      <c r="M71" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="N71" s="51"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="51"/>
-      <c r="R71" s="52"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="55"/>
     </row>
     <row r="74" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K74" s="55" t="s">
+      <c r="K74" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="L74" s="56"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="52"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="55"/>
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="53" t="s">
+      <c r="K75" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L75" s="54"/>
-      <c r="M75" s="50" t="s">
+      <c r="L75" s="57"/>
+      <c r="M75" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="52"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="55"/>
     </row>
     <row r="76" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K76" s="55" t="s">
+      <c r="K76" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="L76" s="56"/>
-      <c r="M76" s="50" t="s">
+      <c r="L76" s="59"/>
+      <c r="M76" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="52"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="55"/>
     </row>
     <row r="77" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K77" s="57" t="s">
+      <c r="K77" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L77" s="58"/>
-      <c r="M77" s="59" t="s">
+      <c r="L77" s="61"/>
+      <c r="M77" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="N77" s="60"/>
-      <c r="O77" s="60"/>
-      <c r="P77" s="60"/>
-      <c r="Q77" s="60"/>
-      <c r="R77" s="61"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="64"/>
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K80" s="55" t="s">
+      <c r="K80" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="L80" s="56"/>
-      <c r="M80" s="50" t="s">
+      <c r="L80" s="59"/>
+      <c r="M80" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="52"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="54"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="55"/>
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K81" s="53" t="s">
+      <c r="K81" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L81" s="54"/>
+      <c r="L81" s="57"/>
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K82" s="55" t="s">
+      <c r="K82" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="L82" s="56"/>
-      <c r="M82" s="50" t="s">
+      <c r="L82" s="59"/>
+      <c r="M82" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="N82" s="51"/>
-      <c r="O82" s="51"/>
-      <c r="P82" s="51"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="52"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="54"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="55"/>
     </row>
     <row r="83" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K83" s="57" t="s">
+      <c r="K83" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L83" s="58"/>
-      <c r="M83" s="50" t="s">
+      <c r="L83" s="61"/>
+      <c r="M83" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="N83" s="51"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="51"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="52"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="104">

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6102" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="641">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1949,6 +1949,12 @@
   </si>
   <si>
     <t>UNILEVER + STABVY</t>
+  </si>
+  <si>
+    <t>LOMAS</t>
+  </si>
+  <si>
+    <t>AMBATO</t>
   </si>
 </sst>
 </file>
@@ -2343,8 +2349,8 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2352,13 +2358,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6390,6 +6396,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -6398,22 +6420,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10686,6 +10692,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -10694,22 +10716,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15209,19 +15215,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="S42:W42"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
@@ -15234,6 +15227,19 @@
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
     <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="S42:W42"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15244,8 +15250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G112"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16317,11 +16323,21 @@
       <c r="W16" s="5">
         <v>140</v>
       </c>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="5"/>
+      <c r="Y16" s="11">
+        <v>45287</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>140</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -16374,18 +16390,38 @@
       <c r="W17" s="5">
         <v>200</v>
       </c>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="5"/>
+      <c r="Y17" s="11">
+        <v>45288</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>140</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="11">
+        <v>45287</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>160</v>
+      </c>
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
       <c r="G18" s="11">
         <v>45279</v>
       </c>
@@ -16428,11 +16464,21 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="11">
+        <v>45288</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>140</v>
+      </c>
+      <c r="E19" s="5">
+        <v>140</v>
+      </c>
       <c r="G19" s="11">
         <v>45281</v>
       </c>
@@ -16545,11 +16591,21 @@
       <c r="O21" s="16"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="5"/>
+      <c r="S21" s="11">
+        <v>45287</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="4">
+        <v>200</v>
+      </c>
+      <c r="W21" s="5">
+        <v>200</v>
+      </c>
       <c r="Y21" s="11"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
@@ -16582,11 +16638,21 @@
       <c r="O22" s="16"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="5"/>
+      <c r="S22" s="11">
+        <v>45288</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="V22" s="4">
+        <v>180</v>
+      </c>
+      <c r="W22" s="5">
+        <v>180</v>
+      </c>
       <c r="Y22" s="11"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
@@ -16599,11 +16665,21 @@
       <c r="C23" s="16"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
+      <c r="G23" s="11">
+        <v>45287</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
+      <c r="K23" s="5">
+        <v>500</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -16709,11 +16785,11 @@
       <c r="C27" s="46"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>1740</v>
+        <v>2040</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>3270</v>
+        <v>3610</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>34</v>
@@ -16722,11 +16798,11 @@
       <c r="I27" s="46"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
-        <v>2040</v>
+        <v>2140</v>
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>4070</v>
+        <v>4570</v>
       </c>
       <c r="M27" s="46" t="s">
         <v>34</v>
@@ -16748,11 +16824,11 @@
       <c r="U27" s="46"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
-        <v>1870</v>
+        <v>2250</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>3780</v>
+        <v>4160</v>
       </c>
       <c r="Y27" s="46" t="s">
         <v>34</v>
@@ -16761,11 +16837,11 @@
       <c r="AA27" s="46"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>1550</v>
+        <v>1830</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>2410</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -17813,16 +17889,36 @@
       <c r="E48" s="5">
         <v>150</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="5"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="5"/>
+      <c r="G48" s="11">
+        <v>45286</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="4">
+        <v>170</v>
+      </c>
+      <c r="K48" s="5">
+        <v>170</v>
+      </c>
+      <c r="M48" s="11">
+        <v>45287</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>100</v>
+      </c>
       <c r="S48" s="11">
         <v>45283</v>
       </c>
@@ -17851,16 +17947,36 @@
       <c r="E49" s="5">
         <v>200</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="5"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="5"/>
+      <c r="G49" s="11">
+        <v>45287</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="4">
+        <v>170</v>
+      </c>
+      <c r="K49" s="5">
+        <v>170</v>
+      </c>
+      <c r="M49" s="11">
+        <v>45287</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>150</v>
+      </c>
       <c r="S49" s="11">
         <v>45286</v>
       </c>
@@ -17878,33 +17994,83 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="5"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="5"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="5"/>
+      <c r="A50" s="11">
+        <v>45286</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="4">
+        <v>150</v>
+      </c>
+      <c r="E50" s="5">
+        <v>150</v>
+      </c>
+      <c r="G50" s="11">
+        <v>45288</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" s="4">
+        <v>140</v>
+      </c>
+      <c r="K50" s="5">
+        <v>140</v>
+      </c>
+      <c r="M50" s="11">
+        <v>45288</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>150</v>
+      </c>
+      <c r="S50" s="11">
+        <v>45288</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V50" s="4">
+        <v>140</v>
+      </c>
+      <c r="W50" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="11">
+        <v>45287</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="4">
+        <v>150</v>
+      </c>
+      <c r="E51" s="5">
+        <v>150</v>
+      </c>
       <c r="G51" s="11"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
@@ -17915,11 +18081,21 @@
       <c r="O51" s="16"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="5"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="5"/>
+      <c r="S51" s="11">
+        <v>45288</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V51" s="4">
+        <v>100</v>
+      </c>
+      <c r="W51" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -18017,11 +18193,11 @@
       <c r="C56" s="46"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>1840</v>
+        <v>2140</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>3310</v>
+        <v>3610</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>34</v>
@@ -18030,11 +18206,11 @@
       <c r="I56" s="46"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>1800</v>
+        <v>2280</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>2570</v>
+        <v>3050</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>34</v>
@@ -18043,11 +18219,11 @@
       <c r="O56" s="46"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>2050</v>
+        <v>2450</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>3060</v>
+        <v>3460</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>34</v>
@@ -18056,11 +18232,11 @@
       <c r="U56" s="46"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
-        <v>2120</v>
+        <v>2360</v>
       </c>
       <c r="W56" s="18">
         <f>SUM(W33:W55)</f>
-        <v>2445</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -19081,11 +19257,21 @@
       <c r="Q78" s="5">
         <v>140</v>
       </c>
-      <c r="S78" s="11"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="5"/>
+      <c r="S78" s="11">
+        <v>45287</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="U78" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V78" s="4">
+        <v>110</v>
+      </c>
+      <c r="W78" s="5">
+        <v>110</v>
+      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
@@ -19103,11 +19289,21 @@
       <c r="E79" s="5">
         <v>110</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="5"/>
+      <c r="G79" s="11">
+        <v>45287</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="J79" s="4">
+        <v>100</v>
+      </c>
+      <c r="K79" s="5">
+        <v>140</v>
+      </c>
       <c r="M79" s="11">
         <v>45280</v>
       </c>
@@ -19123,11 +19319,21 @@
       <c r="Q79" s="5">
         <v>140</v>
       </c>
-      <c r="S79" s="11"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="5"/>
+      <c r="S79" s="11">
+        <v>45287</v>
+      </c>
+      <c r="T79" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="U79" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="V79" s="4">
+        <v>100</v>
+      </c>
+      <c r="W79" s="5">
+        <v>600</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
@@ -19230,11 +19436,21 @@
       <c r="I82" s="16"/>
       <c r="J82" s="4"/>
       <c r="K82" s="5"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="5"/>
+      <c r="M82" s="11">
+        <v>45287</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="P82" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>130</v>
+      </c>
       <c r="S82" s="11"/>
       <c r="T82" s="16"/>
       <c r="U82" s="16"/>
@@ -19272,11 +19488,21 @@
       <c r="W83" s="5"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
+      <c r="A84" s="11">
+        <v>45288</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="4">
+        <v>140</v>
+      </c>
+      <c r="E84" s="5">
+        <v>140</v>
+      </c>
       <c r="G84" s="11"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
@@ -19294,11 +19520,21 @@
       <c r="W84" s="5"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
+      <c r="A85" s="11">
+        <v>45288</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="4">
+        <v>130</v>
+      </c>
+      <c r="E85" s="5">
+        <v>130</v>
+      </c>
       <c r="G85" s="11"/>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
@@ -19345,11 +19581,11 @@
       <c r="C87" s="46"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>2210</v>
+        <v>2480</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>4070</v>
+        <v>4340</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>34</v>
@@ -19358,11 +19594,11 @@
       <c r="I87" s="46"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>1880</v>
+        <v>1980</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>2930</v>
+        <v>3070</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>34</v>
@@ -19371,11 +19607,11 @@
       <c r="O87" s="46"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>1990</v>
+        <v>2090</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>3020</v>
+        <v>3150</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>34</v>
@@ -19384,11 +19620,11 @@
       <c r="U87" s="46"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>1840</v>
+        <v>2050</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>3910</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -19408,7 +19644,7 @@
       </c>
       <c r="C100" s="20">
         <f>V27</f>
-        <v>1870</v>
+        <v>2250</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>3</v>
@@ -19422,7 +19658,7 @@
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>2210</v>
+        <v>2480</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -19443,7 +19679,7 @@
       </c>
       <c r="C101" s="20">
         <f>J27</f>
-        <v>2040</v>
+        <v>2140</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>1</v>
@@ -19453,11 +19689,11 @@
       </c>
       <c r="F101" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
-        <v>2120</v>
+        <v>2450</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -19478,7 +19714,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>1740</v>
+        <v>2040</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -19488,11 +19724,11 @@
       </c>
       <c r="F102" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>2050</v>
+        <v>2360</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -19511,7 +19747,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>1800</v>
+        <v>2280</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -19521,11 +19757,11 @@
       </c>
       <c r="F103" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>2280</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -19545,7 +19781,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>2050</v>
+        <v>2450</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -19555,11 +19791,11 @@
       </c>
       <c r="F104" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>1990</v>
+        <v>2250</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -19589,11 +19825,11 @@
       </c>
       <c r="F105" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>1880</v>
+        <v>2140</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -19613,7 +19849,7 @@
       </c>
       <c r="C106" s="20">
         <f>V56</f>
-        <v>2120</v>
+        <v>2360</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>38</v>
@@ -19621,13 +19857,12 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+      <c r="F106" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>1870</v>
+        <v>2140</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -19647,7 +19882,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>1840</v>
+        <v>2140</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -19655,12 +19890,13 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="s">
-        <v>170</v>
+      <c r="F107" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>1840</v>
+        <v>2090</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -19680,7 +19916,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>1880</v>
+        <v>1980</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -19690,11 +19926,11 @@
       </c>
       <c r="F108" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>1840</v>
+        <v>2050</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -19713,7 +19949,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>2210</v>
+        <v>2480</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -19723,11 +19959,11 @@
       </c>
       <c r="F109" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>2040</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="31" t="s">
@@ -19746,7 +19982,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>1990</v>
+        <v>2090</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -19756,11 +19992,11 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>1980</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="31" t="s">
@@ -19779,7 +20015,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>1840</v>
+        <v>2050</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>170</v>
@@ -19793,7 +20029,7 @@
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1830</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -19812,7 +20048,7 @@
       </c>
       <c r="C112" s="42">
         <f>AB27</f>
-        <v>1550</v>
+        <v>1830</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>636</v>
@@ -19834,16 +20070,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -19852,14 +20086,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -19882,30 +20118,30 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="48" t="s">
         <v>580</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="K7" s="49" t="s">
         <v>581</v>
       </c>
@@ -19936,10 +20172,10 @@
       <c r="H8" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="50" t="s">
         <v>588</v>
       </c>
@@ -19988,18 +20224,18 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52" t="s">
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
@@ -20080,10 +20316,10 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="50" t="s">
         <v>601</v>
       </c>
@@ -20132,18 +20368,18 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52" t="s">
+      <c r="L17" s="52"/>
+      <c r="M17" s="53" t="s">
         <v>606</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="21" t="s">
@@ -20198,10 +20434,10 @@
       <c r="R20" s="50"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L21" s="48"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="50" t="s">
         <v>611</v>
       </c>
@@ -20226,18 +20462,18 @@
       <c r="R22" s="50"/>
     </row>
     <row r="23" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52" t="s">
+      <c r="L23" s="52"/>
+      <c r="M23" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K26" s="49" t="s">
@@ -20252,10 +20488,10 @@
       <c r="R26" s="50"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L27" s="48"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="50" t="s">
         <v>614</v>
       </c>
@@ -20280,18 +20516,18 @@
       <c r="R28" s="50"/>
     </row>
     <row r="29" spans="3:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52" t="s">
+      <c r="L29" s="52"/>
+      <c r="M29" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K32" s="49" t="s">
@@ -20306,10 +20542,10 @@
       <c r="R32" s="50"/>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="48" t="s">
+      <c r="K33" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L33" s="48"/>
+      <c r="L33" s="51"/>
       <c r="M33" s="50" t="s">
         <v>617</v>
       </c>
@@ -20334,18 +20570,18 @@
       <c r="R34" s="50"/>
     </row>
     <row r="35" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="51" t="s">
+      <c r="K35" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52" t="s">
+      <c r="L35" s="52"/>
+      <c r="M35" s="53" t="s">
         <v>619</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K38" s="49" t="s">
@@ -20360,10 +20596,10 @@
       <c r="R38" s="50"/>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L39" s="48"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="50" t="s">
         <v>620</v>
       </c>
@@ -20388,18 +20624,18 @@
       <c r="R40" s="50"/>
     </row>
     <row r="41" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="51" t="s">
+      <c r="K41" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L41" s="51"/>
-      <c r="M41" s="52" t="s">
+      <c r="L41" s="52"/>
+      <c r="M41" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
     </row>
     <row r="44" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K44" s="49" t="s">
@@ -20414,10 +20650,10 @@
       <c r="R44" s="50"/>
     </row>
     <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="48" t="s">
+      <c r="K45" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L45" s="48"/>
+      <c r="L45" s="51"/>
       <c r="M45" s="50" t="s">
         <v>622</v>
       </c>
@@ -20442,18 +20678,18 @@
       <c r="R46" s="50"/>
     </row>
     <row r="47" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K47" s="51" t="s">
+      <c r="K47" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52" t="s">
+      <c r="L47" s="52"/>
+      <c r="M47" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
     </row>
     <row r="50" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K50" s="49" t="s">
@@ -20468,10 +20704,10 @@
       <c r="R50" s="50"/>
     </row>
     <row r="51" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K51" s="48" t="s">
+      <c r="K51" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L51" s="48"/>
+      <c r="L51" s="51"/>
       <c r="M51" s="50" t="s">
         <v>622</v>
       </c>
@@ -20496,18 +20732,18 @@
       <c r="R52" s="50"/>
     </row>
     <row r="53" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K53" s="51" t="s">
+      <c r="K53" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L53" s="51"/>
-      <c r="M53" s="52" t="s">
+      <c r="L53" s="52"/>
+      <c r="M53" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
     </row>
     <row r="56" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K56" s="49" t="s">
@@ -20522,10 +20758,10 @@
       <c r="R56" s="50"/>
     </row>
     <row r="57" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L57" s="48"/>
+      <c r="L57" s="51"/>
       <c r="M57" s="50" t="s">
         <v>624</v>
       </c>
@@ -20550,10 +20786,10 @@
       <c r="R58" s="50"/>
     </row>
     <row r="59" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="51" t="s">
+      <c r="K59" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L59" s="51"/>
+      <c r="L59" s="52"/>
       <c r="M59" s="50" t="s">
         <v>626</v>
       </c>
@@ -20576,10 +20812,10 @@
       <c r="R62" s="50"/>
     </row>
     <row r="63" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K63" s="48" t="s">
+      <c r="K63" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L63" s="48"/>
+      <c r="L63" s="51"/>
       <c r="M63" s="50" t="s">
         <v>624</v>
       </c>
@@ -20604,10 +20840,10 @@
       <c r="R64" s="50"/>
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="51" t="s">
+      <c r="K65" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L65" s="51"/>
+      <c r="L65" s="52"/>
       <c r="M65" s="50" t="s">
         <v>626</v>
       </c>
@@ -20630,10 +20866,10 @@
       <c r="R68" s="50"/>
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L69" s="48"/>
+      <c r="L69" s="51"/>
       <c r="M69" s="50" t="s">
         <v>628</v>
       </c>
@@ -20658,10 +20894,10 @@
       <c r="R70" s="50"/>
     </row>
     <row r="71" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K71" s="51" t="s">
+      <c r="K71" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L71" s="51"/>
+      <c r="L71" s="52"/>
       <c r="M71" s="50" t="s">
         <v>630</v>
       </c>
@@ -20684,10 +20920,10 @@
       <c r="R74" s="50"/>
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="48" t="s">
+      <c r="K75" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L75" s="48"/>
+      <c r="L75" s="51"/>
       <c r="M75" s="50" t="s">
         <v>631</v>
       </c>
@@ -20712,18 +20948,18 @@
       <c r="R76" s="50"/>
     </row>
     <row r="77" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K77" s="51" t="s">
+      <c r="K77" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L77" s="51"/>
-      <c r="M77" s="52" t="s">
+      <c r="L77" s="52"/>
+      <c r="M77" s="53" t="s">
         <v>633</v>
       </c>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="53"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="53"/>
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K80" s="49" t="s">
@@ -20740,10 +20976,10 @@
       <c r="R80" s="50"/>
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K81" s="48" t="s">
+      <c r="K81" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="L81" s="48"/>
+      <c r="L81" s="51"/>
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K82" s="49" t="s">
@@ -20760,10 +20996,10 @@
       <c r="R82" s="50"/>
     </row>
     <row r="83" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K83" s="51" t="s">
+      <c r="K83" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="L83" s="51"/>
+      <c r="L83" s="52"/>
       <c r="M83" s="50" t="s">
         <v>635</v>
       </c>
@@ -20775,95 +21011,6 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="C5:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:R38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:R39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:R46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:R47"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:R52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:R56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:R57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:R58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:R59"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:R62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:R64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:R71"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="M82:R82"/>
@@ -20879,6 +21026,95 @@
     <mergeCell ref="M77:R77"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:R80"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:R71"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:R59"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:R62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:R64"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:R52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:R56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:R57"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:R46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:R47"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24615,6 +24851,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -24623,22 +24875,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -28836,6 +29072,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -28844,22 +29096,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -32987,6 +33223,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -32995,22 +33247,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -37540,6 +37776,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -37548,22 +37800,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -41661,6 +41897,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -41669,22 +41921,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -45838,6 +46074,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -45846,22 +46098,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -50116,6 +50352,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -50124,22 +50376,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -54179,6 +54415,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -54187,22 +54439,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/DOC 2023/TURNOS 2023.xlsx
+++ b/DOC 2023/TURNOS 2023.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="649">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1955,6 +1955,30 @@
   </si>
   <si>
     <t>AMBATO</t>
+  </si>
+  <si>
+    <t>pica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indurama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flexnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">creditos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLEXNET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICA </t>
   </si>
 </sst>
 </file>
@@ -2349,8 +2373,8 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2358,13 +2382,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6396,6 +6420,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -6404,22 +6444,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10692,6 +10716,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -10700,22 +10740,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15215,6 +15239,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="S42:W42"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
@@ -15227,19 +15264,6 @@
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
     <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="S42:W42"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15250,8 +15274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16457,11 +16481,21 @@
       <c r="W18" s="5">
         <v>140</v>
       </c>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="5"/>
+      <c r="Y18" s="11">
+        <v>45655</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>150</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -16512,18 +16546,38 @@
       <c r="W19" s="5">
         <v>200</v>
       </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="5"/>
+      <c r="Y19" s="11">
+        <v>45655</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>370</v>
+      </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="11">
+        <v>45655</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4">
+        <v>140</v>
+      </c>
+      <c r="E20" s="5">
+        <v>140</v>
+      </c>
       <c r="G20" s="11" t="s">
         <v>554</v>
       </c>
@@ -16685,7 +16739,9 @@
       <c r="O23" s="16"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
-      <c r="S23" s="11"/>
+      <c r="S23" s="11">
+        <v>45655</v>
+      </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="4"/>
@@ -16785,11 +16841,11 @@
       <c r="C27" s="46"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>2040</v>
+        <v>2180</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>3610</v>
+        <v>3750</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>34</v>
@@ -16837,11 +16893,11 @@
       <c r="AA27" s="46"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>1830</v>
+        <v>2080</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>2690</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -18071,16 +18127,36 @@
       <c r="E51" s="5">
         <v>150</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="5"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="5"/>
+      <c r="G51" s="11">
+        <v>45655</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="J51" s="4">
+        <v>100</v>
+      </c>
+      <c r="K51" s="5">
+        <v>100</v>
+      </c>
+      <c r="M51" s="11">
+        <v>45655</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="P51" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>150</v>
+      </c>
       <c r="S51" s="11">
         <v>45288</v>
       </c>
@@ -18098,11 +18174,21 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="11">
+        <v>45654</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="4">
+        <v>150</v>
+      </c>
+      <c r="E52" s="5">
+        <v>150</v>
+      </c>
       <c r="G52" s="11"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -18113,7 +18199,9 @@
       <c r="O52" s="16"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="5"/>
-      <c r="S52" s="11"/>
+      <c r="S52" s="11">
+        <v>45655</v>
+      </c>
       <c r="T52" s="16"/>
       <c r="U52" s="16"/>
       <c r="V52" s="4"/>
@@ -18193,11 +18281,11 @@
       <c r="C56" s="46"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>2140</v>
+        <v>2290</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>34</v>
@@ -18206,11 +18294,11 @@
       <c r="I56" s="46"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>2280</v>
+        <v>2380</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>3050</v>
+        <v>3150</v>
       </c>
       <c r="M56" s="46" t="s">
         <v>34</v>
@@ -18219,11 +18307,11 @@
       <c r="O56" s="46"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>2450</v>
+        <v>2600</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>3460</v>
+        <v>3610</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>34</v>
@@ -19347,11 +19435,21 @@
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="5"/>
+      <c r="G80" s="11">
+        <v>45655</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J80" s="4">
+        <v>150</v>
+      </c>
+      <c r="K80" s="5">
+        <v>150</v>
+      </c>
       <c r="M80" s="11" t="s">
         <v>558</v>
       </c>
@@ -19367,11 +19465,21 @@
       <c r="Q80" s="5">
         <v>300</v>
       </c>
-      <c r="S80" s="11"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="5"/>
+      <c r="S80" s="11">
+        <v>45655</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="U80" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="V80" s="4">
+        <v>150</v>
+      </c>
+      <c r="W80" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -19389,11 +19497,21 @@
       <c r="E81" s="5">
         <v>120</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="5"/>
+      <c r="G81" s="11">
+        <v>45655</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" s="4">
+        <v>150</v>
+      </c>
+      <c r="K81" s="5">
+        <v>150</v>
+      </c>
       <c r="M81" s="11">
         <v>45286</v>
       </c>
@@ -19409,11 +19527,21 @@
       <c r="Q81" s="5">
         <v>500</v>
       </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="5"/>
+      <c r="S81" s="11">
+        <v>45655</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="U81" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="V81" s="4">
+        <v>150</v>
+      </c>
+      <c r="W81" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
@@ -19451,11 +19579,21 @@
       <c r="Q82" s="5">
         <v>130</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="5"/>
+      <c r="S82" s="11">
+        <v>45655</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="U82" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="V82" s="4">
+        <v>150</v>
+      </c>
+      <c r="W82" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
@@ -19476,11 +19614,21 @@
       <c r="I83" s="16"/>
       <c r="J83" s="4"/>
       <c r="K83" s="5"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="5"/>
+      <c r="M83" s="11">
+        <v>45654</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="O83" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P83" s="4">
+        <v>140</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>140</v>
+      </c>
       <c r="S83" s="11"/>
       <c r="T83" s="16"/>
       <c r="U83" s="16"/>
@@ -19508,11 +19656,21 @@
       <c r="I84" s="16"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="5"/>
+      <c r="M84" s="11">
+        <v>45655</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="O84" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P84" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>150</v>
+      </c>
       <c r="S84" s="11"/>
       <c r="T84" s="16"/>
       <c r="U84" s="16"/>
@@ -19552,11 +19710,21 @@
       <c r="W85" s="5"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
+      <c r="A86" s="11">
+        <v>45655</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="4">
+        <v>150</v>
+      </c>
+      <c r="E86" s="5">
+        <v>150</v>
+      </c>
       <c r="G86" s="11"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
@@ -19581,11 +19749,11 @@
       <c r="C87" s="46"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>2480</v>
+        <v>2630</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>4340</v>
+        <v>4490</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>34</v>
@@ -19594,11 +19762,11 @@
       <c r="I87" s="46"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>1980</v>
+        <v>2280</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>3070</v>
+        <v>3370</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>34</v>
@@ -19607,11 +19775,11 @@
       <c r="O87" s="46"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>2090</v>
+        <v>2380</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>3150</v>
+        <v>3440</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>34</v>
@@ -19620,11 +19788,11 @@
       <c r="U87" s="46"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>2050</v>
+        <v>2500</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>4620</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -19658,7 +19826,7 @@
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>2480</v>
+        <v>2630</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -19693,7 +19861,7 @@
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
-        <v>2450</v>
+        <v>2600</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -19714,7 +19882,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>2040</v>
+        <v>2180</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -19724,11 +19892,11 @@
       </c>
       <c r="F102" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>2360</v>
+        <v>2500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -19747,7 +19915,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>2280</v>
+        <v>2380</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -19761,7 +19929,7 @@
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>2280</v>
+        <v>2380</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -19781,7 +19949,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>2450</v>
+        <v>2600</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -19789,13 +19957,12 @@
       <c r="E104" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+      <c r="F104" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>2250</v>
+        <v>2380</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -19825,11 +19992,11 @@
       </c>
       <c r="F105" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>2140</v>
+        <v>2360</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -19857,12 +20024,13 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>35</v>
+      <c r="F106" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>POS 0267</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>2140</v>
+        <v>2290</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -19882,7 +20050,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>2140</v>
+        <v>2290</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -19892,11 +20060,11 @@
       </c>
       <c r="F107" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>2090</v>
+        <v>2280</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -19916,7 +20084,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>1980</v>
+        <v>2280</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -19926,11 +20094,11 @@
       </c>
       <c r="F108" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -19949,7 +20117,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>2480</v>
+        <v>2630</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -19963,7 +20131,7 @@
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>2180</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="31" t="s">
@@ -19982,7 +20150,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>2090</v>
+        <v>2380</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -19992,11 +20160,11 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>2140</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="31" t="s">
@@ -20015,7 +20183,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>2050</v>
+        <v>2500</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>170</v>
@@ -20029,7 +20197,7 @@
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>1830</v>
+        <v>2080</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -20048,7 +20216,7 @@
       </c>
       <c r="C112" s="42">
         <f>AB27</f>
-        <v>1830</v>
+        <v>2080</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>636</v>
@@ -20070,6 +20238,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -20078,24 +20264,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20118,30 +20286,30 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="53" t="s">
         <v>580</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
       <c r="K7" s="49" t="s">
         <v>581</v>
       </c>
@@ -20172,10 +20340,10 @@
       <c r="H8" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L8" s="51"/>
+      <c r="L8" s="48"/>
       <c r="M8" s="50" t="s">
         <v>588</v>
       </c>
@@ -20224,18 +20392,18 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="51"/>
+      <c r="M10" s="52" t="s">
         <v>594</v>
       </c>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
@@ -20316,10 +20484,10 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L15" s="51"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="50" t="s">
         <v>601</v>
       </c>
@@ -20368,18 +20536,18 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53" t="s">
+      <c r="L17" s="51"/>
+      <c r="M17" s="52" t="s">
         <v>606</v>
       </c>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="21" t="s">
@@ -20434,10 +20602,10 @@
       <c r="R20" s="50"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L21" s="51"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="50" t="s">
         <v>611</v>
       </c>
@@ -20462,18 +20630,18 @@
       <c r="R22" s="50"/>
     </row>
     <row r="23" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53" t="s">
+      <c r="L23" s="51"/>
+      <c r="M23" s="52" t="s">
         <v>613</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K26" s="49" t="s">
@@ -20488,10 +20656,10 @@
       <c r="R26" s="50"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L27" s="51"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="50" t="s">
         <v>614</v>
       </c>
@@ -20516,18 +20684,18 @@
       <c r="R28" s="50"/>
     </row>
     <row r="29" spans="3:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53" t="s">
+      <c r="L29" s="51"/>
+      <c r="M29" s="52" t="s">
         <v>616</v>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K32" s="49" t="s">
@@ -20542,10 +20710,10 @@
       <c r="R32" s="50"/>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L33" s="51"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="50" t="s">
         <v>617</v>
       </c>
@@ -20570,18 +20738,18 @@
       <c r="R34" s="50"/>
     </row>
     <row r="35" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="52" t="s">
+      <c r="K35" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="M35" s="53" t="s">
+      <c r="L35" s="51"/>
+      <c r="M35" s="52" t="s">
         <v>619</v>
       </c>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K38" s="49" t="s">
@@ -20596,10 +20764,10 @@
       <c r="R38" s="50"/>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="51" t="s">
+      <c r="K39" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L39" s="51"/>
+      <c r="L39" s="48"/>
       <c r="M39" s="50" t="s">
         <v>620</v>
       </c>
@@ -20624,18 +20792,18 @@
       <c r="R40" s="50"/>
     </row>
     <row r="41" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L41" s="52"/>
-      <c r="M41" s="53" t="s">
+      <c r="L41" s="51"/>
+      <c r="M41" s="52" t="s">
         <v>621</v>
       </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="44" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K44" s="49" t="s">
@@ -20650,10 +20818,10 @@
       <c r="R44" s="50"/>
     </row>
     <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="51" t="s">
+      <c r="K45" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L45" s="51"/>
+      <c r="L45" s="48"/>
       <c r="M45" s="50" t="s">
         <v>622</v>
       </c>
@@ -20678,18 +20846,18 @@
       <c r="R46" s="50"/>
     </row>
     <row r="47" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K47" s="52" t="s">
+      <c r="K47" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53" t="s">
+      <c r="L47" s="51"/>
+      <c r="M47" s="52" t="s">
         <v>623</v>
       </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
     </row>
     <row r="50" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K50" s="49" t="s">
@@ -20704,10 +20872,10 @@
       <c r="R50" s="50"/>
     </row>
     <row r="51" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K51" s="51" t="s">
+      <c r="K51" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L51" s="51"/>
+      <c r="L51" s="48"/>
       <c r="M51" s="50" t="s">
         <v>622</v>
       </c>
@@ -20732,18 +20900,18 @@
       <c r="R52" s="50"/>
     </row>
     <row r="53" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L53" s="52"/>
-      <c r="M53" s="53" t="s">
+      <c r="L53" s="51"/>
+      <c r="M53" s="52" t="s">
         <v>623</v>
       </c>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
     </row>
     <row r="56" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K56" s="49" t="s">
@@ -20758,10 +20926,10 @@
       <c r="R56" s="50"/>
     </row>
     <row r="57" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K57" s="51" t="s">
+      <c r="K57" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L57" s="51"/>
+      <c r="L57" s="48"/>
       <c r="M57" s="50" t="s">
         <v>624</v>
       </c>
@@ -20786,10 +20954,10 @@
       <c r="R58" s="50"/>
     </row>
     <row r="59" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="52" t="s">
+      <c r="K59" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L59" s="52"/>
+      <c r="L59" s="51"/>
       <c r="M59" s="50" t="s">
         <v>626</v>
       </c>
@@ -20812,10 +20980,10 @@
       <c r="R62" s="50"/>
     </row>
     <row r="63" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K63" s="51" t="s">
+      <c r="K63" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L63" s="51"/>
+      <c r="L63" s="48"/>
       <c r="M63" s="50" t="s">
         <v>624</v>
       </c>
@@ -20840,10 +21008,10 @@
       <c r="R64" s="50"/>
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="52" t="s">
+      <c r="K65" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L65" s="52"/>
+      <c r="L65" s="51"/>
       <c r="M65" s="50" t="s">
         <v>626</v>
       </c>
@@ -20866,10 +21034,10 @@
       <c r="R68" s="50"/>
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="51" t="s">
+      <c r="K69" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L69" s="51"/>
+      <c r="L69" s="48"/>
       <c r="M69" s="50" t="s">
         <v>628</v>
       </c>
@@ -20894,10 +21062,10 @@
       <c r="R70" s="50"/>
     </row>
     <row r="71" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K71" s="52" t="s">
+      <c r="K71" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L71" s="52"/>
+      <c r="L71" s="51"/>
       <c r="M71" s="50" t="s">
         <v>630</v>
       </c>
@@ -20920,10 +21088,10 @@
       <c r="R74" s="50"/>
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="51" t="s">
+      <c r="K75" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L75" s="51"/>
+      <c r="L75" s="48"/>
       <c r="M75" s="50" t="s">
         <v>631</v>
       </c>
@@ -20948,18 +21116,18 @@
       <c r="R76" s="50"/>
     </row>
     <row r="77" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K77" s="52" t="s">
+      <c r="K77" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L77" s="52"/>
-      <c r="M77" s="53" t="s">
+      <c r="L77" s="51"/>
+      <c r="M77" s="52" t="s">
         <v>633</v>
       </c>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="52"/>
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K80" s="49" t="s">
@@ -20976,10 +21144,10 @@
       <c r="R80" s="50"/>
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K81" s="51" t="s">
+      <c r="K81" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="L81" s="51"/>
+      <c r="L81" s="48"/>
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K82" s="49" t="s">
@@ -20996,10 +21164,10 @@
       <c r="R82" s="50"/>
     </row>
     <row r="83" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K83" s="52" t="s">
+      <c r="K83" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="L83" s="52"/>
+      <c r="L83" s="51"/>
       <c r="M83" s="50" t="s">
         <v>635</v>
       </c>
@@ -21011,6 +21179,95 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:R46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:R47"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:R52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:R56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:R57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:R59"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:R62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:R64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:R71"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="M82:R82"/>
@@ -21026,95 +21283,6 @@
     <mergeCell ref="M77:R77"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:R80"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:R71"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:R58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:R59"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:R62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:R64"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:R52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:R56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:R57"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:R46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:R47"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:R38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:R39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="C5:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24851,6 +25019,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -24859,22 +25043,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -29072,6 +29240,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -29080,22 +29264,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -33223,6 +33391,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -33231,22 +33415,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -37776,6 +37944,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -37784,22 +37968,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -41897,6 +42065,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -41905,22 +42089,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -46074,6 +46242,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -46082,22 +46266,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -50352,6 +50520,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -50360,22 +50544,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -54415,6 +54583,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -54423,22 +54607,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
